--- a/resources/count_implementation.xlsx
+++ b/resources/count_implementation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,131 +434,215 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Projects</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Domains</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>EclipseLink</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>JDBC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Hibernate</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>jOOQ</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>JPA</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Mybatis</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Projects</t>
+          <t>Activiti</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['Activiti', 'skywalking', 'storm', 'che', 'pinpoint']</t>
-        </is>
+          <t>automation</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>60</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>317</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Domains</t>
+          <t>skywalking</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['automation', 'monitoring', 'hpc', 'software development', 'monitoring']</t>
-        </is>
+          <t>monitoring</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EclipseLink</t>
+          <t>storm</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 35, 0]</t>
-        </is>
+          <t>hpc</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Spring</t>
+          <t>che</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[57, 11, 1, 23, 29]</t>
-        </is>
+          <t>software development</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>105</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JDBC</t>
+          <t>pinpoint</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[68, 93, 38, 27, 353]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SQLAlchemy</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>mybatis</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[36, 0, 6, 9, 30]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Hibernate</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[2, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>jOOQ</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[0, 0, 6, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>JPA</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[317, 1, 0, 105, 0]</t>
-        </is>
+          <t>monitoring</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/resources/count_implementation.xlsx
+++ b/resources/count_implementation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,22 +461,22 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>mybatis</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Hibernate</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>jOOQ</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>JPA</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Mybatis</t>
         </is>
       </c>
     </row>
@@ -495,154 +495,187 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
+        <v>0.01224739742804654</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>0.01000204123290467</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0004082465809348847</v>
       </c>
       <c r="H2" t="n">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>50</v>
+        <v>0.01285976729944887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>skywalking</t>
+          <t>che</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>software development</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.01536643026004728</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.0007880220646178094</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.002758077226162333</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.04137115839243499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>storm</t>
+          <t>pinpoint</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hpc</t>
+          <t>monitoring</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0.004785863296109952</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.005276721070069947</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>che</t>
+          <t>skywalking</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>software development</t>
+          <t>monitoring</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.0003865481252415926</v>
       </c>
       <c r="H5" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>0.0003865481252415926</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pinpoint</t>
+          <t>wildfly</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>infrastructure management</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.002059805383905107</v>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>0.0002130833155763904</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.01207472121599545</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.01640741529938206</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43</v>
+        <v>0.03821294126003268</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>storm</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>hpc</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0005885815185403178</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0008828722778104767</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.001765744555620953</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/resources/count_implementation.xlsx
+++ b/resources/count_implementation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>JPA</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Number total of files</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -495,22 +500,28 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01224739742804654</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01000204123290467</v>
+        <v>49</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0004082465809348847</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01285976729944887</v>
+        <v>63</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4899
+</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -525,16 +536,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01536643026004728</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0007880220646178094</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002758077226162333</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -543,7 +554,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04137115839243499</v>
+        <v>105</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2538
+</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -561,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004785863296109952</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005276721070069947</v>
+        <v>43</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -577,6 +594,12 @@
       </c>
       <c r="I4" t="n">
         <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8149
+</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -603,13 +626,19 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003865481252415926</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003865481252415926</v>
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2587
+</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -624,25 +653,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.002059805383905107</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0002130833155763904</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01207472121599545</v>
+        <v>170</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01640741529938206</v>
+        <v>231</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03821294126003268</v>
+        <v>538</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   14079
+</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -660,22 +695,28 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0005885815185403178</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008828722778104767</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001765744555620953</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3398
+</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/resources/count_implementation.xlsx
+++ b/resources/count_implementation.xlsx
@@ -2681,23 +2681,14 @@
       <c r="C2">
         <v>50</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
         <v>60</v>
       </c>
       <c r="F2">
         <v>63</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
         <v>2</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>350</v>
@@ -2710,26 +2701,8 @@
       <c r="B3" t="s">
         <v>329</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
         <v>47</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>351</v>
@@ -2745,21 +2718,6 @@
       <c r="C4">
         <v>43</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>1</v>
       </c>
@@ -2774,26 +2732,11 @@
       <c r="B5" t="s">
         <v>329</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
         <v>2</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>353</v>
@@ -2809,24 +2752,6 @@
       <c r="C6">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6" t="s">
         <v>354</v>
       </c>
@@ -2841,24 +2766,6 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7" t="s">
         <v>355</v>
       </c>
@@ -2870,26 +2777,8 @@
       <c r="B8" t="s">
         <v>332</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>2</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>356</v>
@@ -2902,27 +2791,6 @@
       <c r="B9" t="s">
         <v>333</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9" t="s">
         <v>357</v>
       </c>
@@ -2937,24 +2805,6 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10" t="s">
         <v>358</v>
       </c>
@@ -2966,26 +2816,8 @@
       <c r="B11" t="s">
         <v>330</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
         <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>359</v>
@@ -2998,27 +2830,6 @@
       <c r="B12" t="s">
         <v>330</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12" t="s">
         <v>360</v>
       </c>
@@ -3030,26 +2841,8 @@
       <c r="B13" t="s">
         <v>334</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
         <v>4</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>361</v>
@@ -3062,26 +2855,11 @@
       <c r="B14" t="s">
         <v>329</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
       <c r="E14">
         <v>66</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
         <v>4</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>362</v>
@@ -3094,26 +2872,8 @@
       <c r="B15" t="s">
         <v>329</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15">
         <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>363</v>
@@ -3126,26 +2886,11 @@
       <c r="B16" t="s">
         <v>335</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
         <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>364</v>
@@ -3161,23 +2906,11 @@
       <c r="C17">
         <v>26</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
       <c r="F17">
         <v>4</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
         <v>116</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>365</v>
@@ -3190,27 +2923,6 @@
       <c r="B18" t="s">
         <v>329</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18" t="s">
         <v>366</v>
       </c>
@@ -3225,23 +2937,8 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
       <c r="E19">
         <v>29</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>367</v>
@@ -3257,23 +2954,8 @@
       <c r="C20">
         <v>10</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
         <v>8</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>368</v>
@@ -3295,18 +2977,6 @@
       <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21" t="s">
         <v>369</v>
       </c>
@@ -3321,23 +2991,11 @@
       <c r="C22">
         <v>67</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
       <c r="E22">
         <v>5</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
         <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>370</v>
@@ -3353,23 +3011,8 @@
       <c r="C23">
         <v>14</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
       <c r="E23">
         <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>371</v>
@@ -3385,23 +3028,11 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
       <c r="E24">
         <v>14</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
       <c r="H24">
         <v>24</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>372</v>
@@ -3417,23 +3048,11 @@
       <c r="C25">
         <v>5</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
       <c r="F25">
         <v>5</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
       <c r="H25">
         <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>373</v>
@@ -3449,23 +3068,8 @@
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
       <c r="H26">
         <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>358</v>
@@ -3481,23 +3085,8 @@
       <c r="C27">
         <v>6</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
       <c r="E27">
         <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>374</v>
@@ -3510,26 +3099,8 @@
       <c r="B28" t="s">
         <v>329</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
       <c r="H28">
         <v>4</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>375</v>
@@ -3545,23 +3116,8 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
       <c r="H29">
         <v>3</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>376</v>
@@ -3577,24 +3133,6 @@
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30" t="s">
         <v>377</v>
       </c>
@@ -3609,23 +3147,11 @@
       <c r="C31">
         <v>5</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
       <c r="E31">
         <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
       </c>
       <c r="H31">
         <v>2</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>378</v>
@@ -3641,17 +3167,11 @@
       <c r="C32">
         <v>12</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
       <c r="E32">
         <v>30</v>
       </c>
       <c r="F32">
         <v>13</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3670,26 +3190,8 @@
       <c r="B33" t="s">
         <v>334</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
       <c r="H33">
         <v>12</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>380</v>
@@ -3705,24 +3207,6 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
       <c r="J34" t="s">
         <v>381</v>
       </c>
@@ -3737,24 +3221,6 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
       <c r="J35" t="s">
         <v>382</v>
       </c>
@@ -3769,17 +3235,8 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
       <c r="E36">
         <v>25</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3801,23 +3258,11 @@
       <c r="C37">
         <v>8</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
       <c r="E37">
         <v>243</v>
       </c>
       <c r="F37">
         <v>57</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>384</v>
@@ -3833,23 +3278,8 @@
       <c r="C38">
         <v>2</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
       <c r="H38">
         <v>8</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>385</v>
@@ -3865,24 +3295,6 @@
       <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
       <c r="J39" t="s">
         <v>386</v>
       </c>
@@ -3894,27 +3306,6 @@
       <c r="B40" t="s">
         <v>331</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40" t="s">
         <v>387</v>
       </c>
@@ -3929,23 +3320,8 @@
       <c r="C41">
         <v>2</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
       <c r="H41">
         <v>1</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>388</v>
@@ -3961,17 +3337,11 @@
       <c r="C42">
         <v>41</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
       <c r="E42">
         <v>5</v>
       </c>
       <c r="F42">
         <v>269</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -3993,23 +3363,8 @@
       <c r="C43">
         <v>2</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
       <c r="E43">
         <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>390</v>
@@ -4025,17 +3380,11 @@
       <c r="C44">
         <v>448</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
       <c r="E44">
         <v>39</v>
       </c>
       <c r="F44">
         <v>250</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
       </c>
       <c r="H44">
         <v>228</v>
@@ -4054,27 +3403,6 @@
       <c r="B45" t="s">
         <v>339</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
       <c r="J45" t="s">
         <v>392</v>
       </c>
@@ -4098,9 +3426,6 @@
       <c r="F46">
         <v>75</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
       <c r="H46">
         <v>21</v>
       </c>
@@ -4121,24 +3446,6 @@
       <c r="C47">
         <v>3</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
       <c r="J47" t="s">
         <v>394</v>
       </c>
@@ -4153,24 +3460,6 @@
       <c r="C48">
         <v>7</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
       <c r="J48" t="s">
         <v>395</v>
       </c>
@@ -4185,23 +3474,11 @@
       <c r="C49">
         <v>10</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
       <c r="F49">
         <v>10</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
       <c r="H49">
         <v>26</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>396</v>
@@ -4217,24 +3494,6 @@
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
       <c r="J50" t="s">
         <v>397</v>
       </c>
@@ -4249,23 +3508,8 @@
       <c r="C51">
         <v>9</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
       <c r="H51">
         <v>1</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>398</v>
@@ -4281,23 +3525,8 @@
       <c r="C52">
         <v>179</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
       <c r="E52">
         <v>12</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>397</v>
@@ -4313,23 +3542,8 @@
       <c r="C53">
         <v>4</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
       <c r="H53">
         <v>5</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>399</v>
@@ -4345,24 +3559,6 @@
       <c r="C54">
         <v>2</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
       <c r="J54" t="s">
         <v>400</v>
       </c>
@@ -4377,23 +3573,8 @@
       <c r="C55">
         <v>27</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
       <c r="E55">
         <v>7</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
       </c>
       <c r="J55" t="s">
         <v>401</v>
@@ -4406,27 +3587,6 @@
       <c r="B56" t="s">
         <v>342</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
       <c r="J56" t="s">
         <v>402</v>
       </c>
@@ -4441,23 +3601,8 @@
       <c r="C57">
         <v>2</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
       <c r="F57">
         <v>2</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>403</v>
@@ -4470,27 +3615,6 @@
       <c r="B58" t="s">
         <v>332</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
       <c r="J58" t="s">
         <v>404</v>
       </c>
@@ -4502,27 +3626,6 @@
       <c r="B59" t="s">
         <v>331</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
       <c r="J59" t="s">
         <v>405</v>
       </c>
@@ -4534,26 +3637,8 @@
       <c r="B60" t="s">
         <v>335</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
       <c r="H60">
         <v>1</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>406</v>
@@ -4566,27 +3651,6 @@
       <c r="B61" t="s">
         <v>338</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
       <c r="J61" t="s">
         <v>407</v>
       </c>
@@ -4598,27 +3662,6 @@
       <c r="B62" t="s">
         <v>343</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
       <c r="J62" t="s">
         <v>408</v>
       </c>
@@ -4630,27 +3673,6 @@
       <c r="B63" t="s">
         <v>343</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
       <c r="J63" t="s">
         <v>409</v>
       </c>
@@ -4662,26 +3684,8 @@
       <c r="B64" t="s">
         <v>343</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
       <c r="F64">
         <v>1</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>410</v>
@@ -4697,24 +3701,6 @@
       <c r="C65">
         <v>2</v>
       </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65" t="s">
         <v>411</v>
       </c>
@@ -4726,27 +3712,6 @@
       <c r="B66" t="s">
         <v>330</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
       <c r="J66" t="s">
         <v>412</v>
       </c>
@@ -4758,27 +3723,6 @@
       <c r="B67" t="s">
         <v>335</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
       <c r="J67" t="s">
         <v>413</v>
       </c>
@@ -4793,23 +3737,8 @@
       <c r="C68">
         <v>8</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
       <c r="H68">
         <v>1</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>414</v>
@@ -4822,26 +3751,11 @@
       <c r="B69" t="s">
         <v>334</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
         <v>1</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>415</v>
@@ -4854,27 +3768,6 @@
       <c r="B70" t="s">
         <v>334</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
       <c r="J70" t="s">
         <v>416</v>
       </c>
@@ -4886,26 +3779,8 @@
       <c r="B71" t="s">
         <v>333</v>
       </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
       <c r="H71">
         <v>1</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>417</v>
@@ -4921,24 +3796,6 @@
       <c r="C72">
         <v>4</v>
       </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
       <c r="J72" t="s">
         <v>418</v>
       </c>
@@ -4950,26 +3807,11 @@
       <c r="B73" t="s">
         <v>334</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
       <c r="F73">
         <v>3</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
       <c r="H73">
         <v>2</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>419</v>
@@ -4985,23 +3827,11 @@
       <c r="C74">
         <v>3</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
       <c r="E74">
         <v>28</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
       <c r="H74">
         <v>2</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>420</v>
@@ -5017,24 +3847,6 @@
       <c r="C75">
         <v>7</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
       <c r="J75" t="s">
         <v>421</v>
       </c>
@@ -5046,27 +3858,6 @@
       <c r="B76" t="s">
         <v>330</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
       <c r="J76" t="s">
         <v>422</v>
       </c>
@@ -5081,24 +3872,6 @@
       <c r="C77">
         <v>1</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
       <c r="J77" t="s">
         <v>423</v>
       </c>
@@ -5110,26 +3883,8 @@
       <c r="B78" t="s">
         <v>329</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
       <c r="H78">
         <v>2</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>424</v>
@@ -5142,26 +3897,8 @@
       <c r="B79" t="s">
         <v>339</v>
       </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
       <c r="H79">
         <v>1</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>425</v>
@@ -5174,27 +3911,6 @@
       <c r="B80" t="s">
         <v>332</v>
       </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
       <c r="J80" t="s">
         <v>426</v>
       </c>
@@ -5206,27 +3922,6 @@
       <c r="B81" t="s">
         <v>332</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
       <c r="J81" t="s">
         <v>427</v>
       </c>
@@ -5238,27 +3933,6 @@
       <c r="B82" t="s">
         <v>332</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
       <c r="J82" t="s">
         <v>428</v>
       </c>
@@ -5273,23 +3947,14 @@
       <c r="C83">
         <v>30</v>
       </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
       <c r="E83">
         <v>46</v>
       </c>
       <c r="F83">
         <v>29</v>
       </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
       <c r="H83">
         <v>23</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
       </c>
       <c r="J83" t="s">
         <v>429</v>
@@ -5305,23 +3970,14 @@
       <c r="C84">
         <v>24</v>
       </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
       <c r="E84">
         <v>3</v>
       </c>
       <c r="F84">
         <v>2</v>
       </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
       <c r="H84">
         <v>3</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>430</v>
@@ -5337,23 +3993,8 @@
       <c r="C85">
         <v>3</v>
       </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
       <c r="F85">
         <v>1</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>431</v>
@@ -5366,26 +4007,11 @@
       <c r="B86" t="s">
         <v>335</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
       <c r="F86">
         <v>4</v>
       </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
       <c r="H86">
         <v>7</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>432</v>
@@ -5398,27 +4024,6 @@
       <c r="B87" t="s">
         <v>333</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
       <c r="J87" t="s">
         <v>433</v>
       </c>
@@ -5430,27 +4035,6 @@
       <c r="B88" t="s">
         <v>334</v>
       </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
       <c r="J88" t="s">
         <v>434</v>
       </c>
@@ -5462,27 +4046,6 @@
       <c r="B89" t="s">
         <v>344</v>
       </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
       <c r="J89" t="s">
         <v>435</v>
       </c>
@@ -5497,23 +4060,11 @@
       <c r="C90">
         <v>48</v>
       </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
       <c r="E90">
         <v>4</v>
       </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
       <c r="H90">
         <v>3</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>436</v>
@@ -5529,23 +4080,8 @@
       <c r="C91">
         <v>6</v>
       </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
       <c r="F91">
         <v>811</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>437</v>
@@ -5558,27 +4094,6 @@
       <c r="B92" t="s">
         <v>334</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
       <c r="J92" t="s">
         <v>438</v>
       </c>
@@ -5593,23 +4108,8 @@
       <c r="C93">
         <v>2</v>
       </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
       <c r="H93">
         <v>4</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>439</v>
@@ -5625,23 +4125,8 @@
       <c r="C94">
         <v>77</v>
       </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
       <c r="H94">
         <v>54</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>440</v>
@@ -5654,27 +4139,6 @@
       <c r="B95" t="s">
         <v>334</v>
       </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
       <c r="J95" t="s">
         <v>441</v>
       </c>
@@ -5689,23 +4153,8 @@
       <c r="C96">
         <v>33</v>
       </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
       <c r="F96">
         <v>6</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>442</v>
@@ -5718,27 +4167,6 @@
       <c r="B97" t="s">
         <v>331</v>
       </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
       <c r="J97" t="s">
         <v>443</v>
       </c>
@@ -5750,27 +4178,6 @@
       <c r="B98" t="s">
         <v>328</v>
       </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
       <c r="J98" t="s">
         <v>444</v>
       </c>
@@ -5785,24 +4192,6 @@
       <c r="C99">
         <v>3</v>
       </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
       <c r="J99" t="s">
         <v>445</v>
       </c>
@@ -5817,24 +4206,6 @@
       <c r="C100">
         <v>2</v>
       </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
       <c r="J100" t="s">
         <v>446</v>
       </c>
@@ -5846,27 +4217,6 @@
       <c r="B101" t="s">
         <v>330</v>
       </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
       <c r="J101" t="s">
         <v>447</v>
       </c>
@@ -5878,27 +4228,6 @@
       <c r="B102" t="s">
         <v>344</v>
       </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
       <c r="J102" t="s">
         <v>448</v>
       </c>
@@ -5913,24 +4242,6 @@
       <c r="C103">
         <v>1</v>
       </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
       <c r="J103" t="s">
         <v>449</v>
       </c>
@@ -5942,27 +4253,6 @@
       <c r="B104" t="s">
         <v>334</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
       <c r="J104" t="s">
         <v>450</v>
       </c>
@@ -5974,27 +4264,6 @@
       <c r="B105" t="s">
         <v>334</v>
       </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
       <c r="J105" t="s">
         <v>451</v>
       </c>
@@ -6006,27 +4275,6 @@
       <c r="B106" t="s">
         <v>334</v>
       </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
       <c r="J106" t="s">
         <v>452</v>
       </c>
@@ -6041,23 +4289,11 @@
       <c r="C107">
         <v>5</v>
       </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
       <c r="F107">
         <v>10</v>
       </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
       <c r="H107">
         <v>12</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>453</v>
@@ -6070,27 +4306,6 @@
       <c r="B108" t="s">
         <v>332</v>
       </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
       <c r="J108" t="s">
         <v>454</v>
       </c>
@@ -6105,23 +4320,14 @@
       <c r="C109">
         <v>383</v>
       </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
       <c r="E109">
         <v>288</v>
       </c>
       <c r="F109">
         <v>162</v>
       </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
       <c r="H109">
         <v>11</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>455</v>
@@ -6134,27 +4340,6 @@
       <c r="B110" t="s">
         <v>334</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
       <c r="J110" t="s">
         <v>456</v>
       </c>
@@ -6166,27 +4351,6 @@
       <c r="B111" t="s">
         <v>329</v>
       </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
       <c r="J111" t="s">
         <v>457</v>
       </c>
@@ -6198,27 +4362,6 @@
       <c r="B112" t="s">
         <v>330</v>
       </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
       <c r="J112" t="s">
         <v>458</v>
       </c>
@@ -6233,24 +4376,6 @@
       <c r="C113">
         <v>7</v>
       </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
       <c r="J113" t="s">
         <v>459</v>
       </c>
@@ -6262,27 +4387,6 @@
       <c r="B114" t="s">
         <v>330</v>
       </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
       <c r="J114" t="s">
         <v>460</v>
       </c>
@@ -6294,27 +4398,6 @@
       <c r="B115" t="s">
         <v>330</v>
       </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
       <c r="J115" t="s">
         <v>461</v>
       </c>
@@ -6326,27 +4409,6 @@
       <c r="B116" t="s">
         <v>329</v>
       </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
       <c r="J116" t="s">
         <v>462</v>
       </c>
@@ -6361,23 +4423,11 @@
       <c r="C117">
         <v>2</v>
       </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
       <c r="F117">
         <v>2</v>
       </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
       <c r="H117">
         <v>1</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>463</v>
@@ -6393,23 +4443,14 @@
       <c r="C118">
         <v>197</v>
       </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
       <c r="E118">
         <v>102</v>
       </c>
       <c r="F118">
         <v>14</v>
       </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
       <c r="H118">
         <v>21</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>464</v>
@@ -6425,24 +4466,6 @@
       <c r="C119">
         <v>2</v>
       </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
       <c r="J119" t="s">
         <v>465</v>
       </c>
@@ -6454,27 +4477,6 @@
       <c r="B120" t="s">
         <v>343</v>
       </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
       <c r="J120" t="s">
         <v>466</v>
       </c>
@@ -6486,26 +4488,8 @@
       <c r="B121" t="s">
         <v>334</v>
       </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
       <c r="E121">
         <v>1</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>467</v>
@@ -6521,23 +4505,8 @@
       <c r="C122">
         <v>14</v>
       </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
       <c r="H122">
         <v>1</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
       </c>
       <c r="J122" t="s">
         <v>468</v>
@@ -6550,26 +4519,8 @@
       <c r="B123" t="s">
         <v>343</v>
       </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
       <c r="F123">
         <v>4</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>469</v>
@@ -6585,24 +4536,6 @@
       <c r="C124">
         <v>103</v>
       </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
       <c r="J124" t="s">
         <v>470</v>
       </c>
@@ -6617,23 +4550,11 @@
       <c r="C125">
         <v>38</v>
       </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
       <c r="E125">
         <v>10</v>
       </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
       <c r="H125">
         <v>53</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>471</v>
@@ -6649,24 +4570,6 @@
       <c r="C126">
         <v>9</v>
       </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
       <c r="J126" t="s">
         <v>472</v>
       </c>
@@ -6681,23 +4584,8 @@
       <c r="C127">
         <v>1</v>
       </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
       <c r="H127">
         <v>1</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
       </c>
       <c r="J127" t="s">
         <v>473</v>
@@ -6710,26 +4598,8 @@
       <c r="B128" t="s">
         <v>334</v>
       </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
       <c r="F128">
         <v>1</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
       </c>
       <c r="J128" t="s">
         <v>474</v>
@@ -6745,23 +4615,11 @@
       <c r="C129">
         <v>5</v>
       </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
       <c r="F129">
         <v>133</v>
       </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
       <c r="H129">
         <v>19</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>475</v>
@@ -6774,27 +4632,6 @@
       <c r="B130" t="s">
         <v>334</v>
       </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
       <c r="J130" t="s">
         <v>476</v>
       </c>
@@ -6806,26 +4643,8 @@
       <c r="B131" t="s">
         <v>344</v>
       </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
       <c r="H131">
         <v>1</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
       </c>
       <c r="J131" t="s">
         <v>477</v>
@@ -6841,23 +4660,8 @@
       <c r="C132">
         <v>1</v>
       </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
       <c r="H132">
         <v>1</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
       </c>
       <c r="J132" t="s">
         <v>478</v>
@@ -6870,27 +4674,6 @@
       <c r="B133" t="s">
         <v>330</v>
       </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
       <c r="J133" t="s">
         <v>452</v>
       </c>
@@ -6902,27 +4685,6 @@
       <c r="B134" t="s">
         <v>339</v>
       </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
       <c r="J134" t="s">
         <v>479</v>
       </c>
@@ -6940,20 +4702,11 @@
       <c r="D135">
         <v>7</v>
       </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
       <c r="F135">
         <v>1</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
       </c>
       <c r="H135">
         <v>4</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
       </c>
       <c r="J135" t="s">
         <v>480</v>
@@ -6966,27 +4719,6 @@
       <c r="B136" t="s">
         <v>330</v>
       </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
       <c r="J136" t="s">
         <v>481</v>
       </c>
@@ -7001,23 +4733,8 @@
       <c r="C137">
         <v>8</v>
       </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
       <c r="H137">
         <v>3</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
       </c>
       <c r="J137" t="s">
         <v>482</v>
@@ -7030,26 +4747,8 @@
       <c r="B138" t="s">
         <v>333</v>
       </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
       <c r="H138">
         <v>1</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>483</v>
@@ -7062,27 +4761,6 @@
       <c r="B139" t="s">
         <v>329</v>
       </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
       <c r="J139" t="s">
         <v>484</v>
       </c>
@@ -7097,24 +4775,6 @@
       <c r="C140">
         <v>1</v>
       </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
       <c r="J140" t="s">
         <v>485</v>
       </c>
@@ -7129,23 +4789,8 @@
       <c r="C141">
         <v>1</v>
       </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
       <c r="F141">
         <v>1</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>486</v>
@@ -7158,27 +4803,6 @@
       <c r="B142" t="s">
         <v>330</v>
       </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
       <c r="J142" t="s">
         <v>487</v>
       </c>
@@ -7190,27 +4814,6 @@
       <c r="B143" t="s">
         <v>343</v>
       </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
       <c r="J143" t="s">
         <v>488</v>
       </c>
@@ -7225,24 +4828,6 @@
       <c r="C144">
         <v>47</v>
       </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
       <c r="J144" t="s">
         <v>489</v>
       </c>
@@ -7254,27 +4839,6 @@
       <c r="B145" t="s">
         <v>334</v>
       </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
       <c r="J145" t="s">
         <v>490</v>
       </c>
@@ -7289,24 +4853,6 @@
       <c r="C146">
         <v>27</v>
       </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
       <c r="J146" t="s">
         <v>491</v>
       </c>
@@ -7318,27 +4864,6 @@
       <c r="B147" t="s">
         <v>337</v>
       </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
       <c r="J147" t="s">
         <v>492</v>
       </c>
@@ -7353,23 +4878,8 @@
       <c r="C148">
         <v>5</v>
       </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
       <c r="E148">
         <v>3</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>493</v>
@@ -7385,24 +4895,6 @@
       <c r="C149">
         <v>1</v>
       </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
       <c r="J149" t="s">
         <v>444</v>
       </c>
@@ -7417,24 +4909,6 @@
       <c r="C150">
         <v>1</v>
       </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
       <c r="J150" t="s">
         <v>494</v>
       </c>
@@ -7446,26 +4920,8 @@
       <c r="B151" t="s">
         <v>345</v>
       </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
       <c r="H151">
         <v>1</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
       </c>
       <c r="J151" t="s">
         <v>495</v>
@@ -7478,27 +4934,6 @@
       <c r="B152" t="s">
         <v>345</v>
       </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>0</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
       <c r="J152" t="s">
         <v>496</v>
       </c>
@@ -7510,27 +4945,6 @@
       <c r="B153" t="s">
         <v>334</v>
       </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>0</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
       <c r="J153" t="s">
         <v>497</v>
       </c>
@@ -7542,27 +4956,6 @@
       <c r="B154" t="s">
         <v>329</v>
       </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
       <c r="J154" t="s">
         <v>498</v>
       </c>
@@ -7577,17 +4970,11 @@
       <c r="C155">
         <v>8</v>
       </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
       <c r="E155">
         <v>6</v>
       </c>
       <c r="F155">
         <v>6</v>
-      </c>
-      <c r="G155">
-        <v>0</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -7606,27 +4993,6 @@
       <c r="B156" t="s">
         <v>345</v>
       </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>0</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
       <c r="J156" t="s">
         <v>500</v>
       </c>
@@ -7641,24 +5007,6 @@
       <c r="C157">
         <v>17</v>
       </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>0</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
       <c r="J157" t="s">
         <v>501</v>
       </c>
@@ -7673,24 +5021,6 @@
       <c r="C158">
         <v>1</v>
       </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="H158">
-        <v>0</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
       <c r="J158" t="s">
         <v>502</v>
       </c>
@@ -7702,27 +5032,6 @@
       <c r="B159" t="s">
         <v>344</v>
       </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="H159">
-        <v>0</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
       <c r="J159" t="s">
         <v>503</v>
       </c>
@@ -7734,27 +5043,6 @@
       <c r="B160" t="s">
         <v>334</v>
       </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>0</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
       <c r="J160" t="s">
         <v>504</v>
       </c>
@@ -7769,23 +5057,8 @@
       <c r="C161">
         <v>6</v>
       </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
       <c r="H161">
         <v>1</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>505</v>
@@ -7798,27 +5071,6 @@
       <c r="B162" t="s">
         <v>340</v>
       </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162">
-        <v>0</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="H162">
-        <v>0</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
       <c r="J162" t="s">
         <v>506</v>
       </c>
@@ -7833,17 +5085,11 @@
       <c r="C163">
         <v>41</v>
       </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
       <c r="E163">
         <v>87</v>
       </c>
       <c r="F163">
         <v>22</v>
-      </c>
-      <c r="G163">
-        <v>0</v>
       </c>
       <c r="H163">
         <v>43</v>
@@ -7862,27 +5108,6 @@
       <c r="B164" t="s">
         <v>334</v>
       </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
-        <v>0</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="H164">
-        <v>0</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
       <c r="J164" t="s">
         <v>508</v>
       </c>
@@ -7897,23 +5122,11 @@
       <c r="C165">
         <v>229</v>
       </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
       <c r="F165">
         <v>3512</v>
       </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
       <c r="H165">
         <v>1</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
       </c>
       <c r="J165" t="s">
         <v>509</v>
@@ -7929,23 +5142,8 @@
       <c r="C166">
         <v>20</v>
       </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
-        <v>0</v>
-      </c>
-      <c r="G166">
-        <v>0</v>
-      </c>
       <c r="H166">
         <v>3</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
       </c>
       <c r="J166" t="s">
         <v>510</v>
@@ -7958,27 +5156,6 @@
       <c r="B167" t="s">
         <v>337</v>
       </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <v>0</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
       <c r="J167" t="s">
         <v>511</v>
       </c>
@@ -7993,23 +5170,11 @@
       <c r="C168">
         <v>4</v>
       </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
       <c r="F168">
         <v>1</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
       </c>
       <c r="H168">
         <v>3</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
       </c>
       <c r="J168" t="s">
         <v>512</v>
@@ -8022,27 +5187,6 @@
       <c r="B169" t="s">
         <v>345</v>
       </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169">
-        <v>0</v>
-      </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
-      <c r="H169">
-        <v>0</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
       <c r="J169" t="s">
         <v>513</v>
       </c>
@@ -8054,26 +5198,8 @@
       <c r="B170" t="s">
         <v>343</v>
       </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
       <c r="F170">
         <v>2</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-      <c r="H170">
-        <v>0</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
       </c>
       <c r="J170" t="s">
         <v>514</v>
@@ -8086,27 +5212,6 @@
       <c r="B171" t="s">
         <v>328</v>
       </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171">
-        <v>0</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-      <c r="H171">
-        <v>0</v>
-      </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
       <c r="J171" t="s">
         <v>515</v>
       </c>
@@ -8118,26 +5223,8 @@
       <c r="B172" t="s">
         <v>334</v>
       </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
-      </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
       <c r="H172">
         <v>2</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>516</v>
@@ -8150,27 +5237,6 @@
       <c r="B173" t="s">
         <v>334</v>
       </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173">
-        <v>0</v>
-      </c>
-      <c r="G173">
-        <v>0</v>
-      </c>
-      <c r="H173">
-        <v>0</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
       <c r="J173" t="s">
         <v>517</v>
       </c>
@@ -8182,27 +5248,6 @@
       <c r="B174" t="s">
         <v>333</v>
       </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-      <c r="H174">
-        <v>0</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
       <c r="J174" t="s">
         <v>518</v>
       </c>
@@ -8214,26 +5259,8 @@
       <c r="B175" t="s">
         <v>334</v>
       </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
       <c r="F175">
         <v>21</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="H175">
-        <v>0</v>
-      </c>
-      <c r="I175">
-        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>519</v>
@@ -8246,27 +5273,6 @@
       <c r="B176" t="s">
         <v>337</v>
       </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-      <c r="F176">
-        <v>0</v>
-      </c>
-      <c r="G176">
-        <v>0</v>
-      </c>
-      <c r="H176">
-        <v>0</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
       <c r="J176" t="s">
         <v>520</v>
       </c>
@@ -8278,27 +5284,6 @@
       <c r="B177" t="s">
         <v>329</v>
       </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-      <c r="D177">
-        <v>0</v>
-      </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-      <c r="F177">
-        <v>0</v>
-      </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="H177">
-        <v>0</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
       <c r="J177" t="s">
         <v>521</v>
       </c>
@@ -8310,27 +5295,6 @@
       <c r="B178" t="s">
         <v>330</v>
       </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-      <c r="D178">
-        <v>0</v>
-      </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
-      <c r="G178">
-        <v>0</v>
-      </c>
-      <c r="H178">
-        <v>0</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
       <c r="J178" t="s">
         <v>522</v>
       </c>
@@ -8342,27 +5306,6 @@
       <c r="B179" t="s">
         <v>338</v>
       </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-      <c r="D179">
-        <v>0</v>
-      </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179">
-        <v>0</v>
-      </c>
-      <c r="G179">
-        <v>0</v>
-      </c>
-      <c r="H179">
-        <v>0</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
       <c r="J179" t="s">
         <v>523</v>
       </c>
@@ -8377,23 +5320,8 @@
       <c r="C180">
         <v>5</v>
       </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180">
-        <v>0</v>
-      </c>
       <c r="H180">
         <v>2</v>
-      </c>
-      <c r="I180">
-        <v>0</v>
       </c>
       <c r="J180" t="s">
         <v>524</v>
@@ -8409,17 +5337,11 @@
       <c r="C181">
         <v>208</v>
       </c>
-      <c r="D181">
-        <v>0</v>
-      </c>
       <c r="E181">
         <v>1</v>
       </c>
       <c r="F181">
         <v>115</v>
-      </c>
-      <c r="G181">
-        <v>0</v>
       </c>
       <c r="H181">
         <v>26</v>
@@ -8438,27 +5360,6 @@
       <c r="B182" t="s">
         <v>346</v>
       </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-      <c r="D182">
-        <v>0</v>
-      </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
-      <c r="F182">
-        <v>0</v>
-      </c>
-      <c r="G182">
-        <v>0</v>
-      </c>
-      <c r="H182">
-        <v>0</v>
-      </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
       <c r="J182" t="s">
         <v>526</v>
       </c>
@@ -8473,23 +5374,11 @@
       <c r="C183">
         <v>2</v>
       </c>
-      <c r="D183">
-        <v>0</v>
-      </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
       <c r="F183">
         <v>19</v>
       </c>
-      <c r="G183">
-        <v>0</v>
-      </c>
       <c r="H183">
         <v>5</v>
-      </c>
-      <c r="I183">
-        <v>0</v>
       </c>
       <c r="J183" t="s">
         <v>527</v>
@@ -8505,17 +5394,8 @@
       <c r="C184">
         <v>3</v>
       </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-      <c r="E184">
-        <v>0</v>
-      </c>
       <c r="F184">
         <v>130</v>
-      </c>
-      <c r="G184">
-        <v>0</v>
       </c>
       <c r="H184">
         <v>27</v>
@@ -8537,23 +5417,11 @@
       <c r="C185">
         <v>9</v>
       </c>
-      <c r="D185">
-        <v>0</v>
-      </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
       <c r="F185">
         <v>305</v>
       </c>
-      <c r="G185">
-        <v>0</v>
-      </c>
       <c r="H185">
         <v>42</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
       </c>
       <c r="J185" t="s">
         <v>529</v>
@@ -8569,23 +5437,8 @@
       <c r="C186">
         <v>8</v>
       </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
       <c r="F186">
         <v>1</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-      <c r="H186">
-        <v>0</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>530</v>
@@ -8601,24 +5454,6 @@
       <c r="C187">
         <v>2</v>
       </c>
-      <c r="D187">
-        <v>0</v>
-      </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
-      <c r="G187">
-        <v>0</v>
-      </c>
-      <c r="H187">
-        <v>0</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
       <c r="J187" t="s">
         <v>531</v>
       </c>
@@ -8633,24 +5468,6 @@
       <c r="C188">
         <v>8</v>
       </c>
-      <c r="D188">
-        <v>0</v>
-      </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-      <c r="F188">
-        <v>0</v>
-      </c>
-      <c r="G188">
-        <v>0</v>
-      </c>
-      <c r="H188">
-        <v>0</v>
-      </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
       <c r="J188" t="s">
         <v>532</v>
       </c>
@@ -8662,27 +5479,6 @@
       <c r="B189" t="s">
         <v>330</v>
       </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
-      <c r="D189">
-        <v>0</v>
-      </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-      <c r="F189">
-        <v>0</v>
-      </c>
-      <c r="G189">
-        <v>0</v>
-      </c>
-      <c r="H189">
-        <v>0</v>
-      </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
       <c r="J189" t="s">
         <v>533</v>
       </c>
@@ -8694,27 +5490,6 @@
       <c r="B190" t="s">
         <v>330</v>
       </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-      <c r="D190">
-        <v>0</v>
-      </c>
-      <c r="E190">
-        <v>0</v>
-      </c>
-      <c r="F190">
-        <v>0</v>
-      </c>
-      <c r="G190">
-        <v>0</v>
-      </c>
-      <c r="H190">
-        <v>0</v>
-      </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
       <c r="J190" t="s">
         <v>534</v>
       </c>
@@ -8729,17 +5504,11 @@
       <c r="C191">
         <v>842</v>
       </c>
-      <c r="D191">
-        <v>0</v>
-      </c>
       <c r="E191">
         <v>64</v>
       </c>
       <c r="F191">
         <v>147</v>
-      </c>
-      <c r="G191">
-        <v>0</v>
       </c>
       <c r="H191">
         <v>186</v>
@@ -8758,27 +5527,6 @@
       <c r="B192" t="s">
         <v>331</v>
       </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-      <c r="D192">
-        <v>0</v>
-      </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192">
-        <v>0</v>
-      </c>
-      <c r="G192">
-        <v>0</v>
-      </c>
-      <c r="H192">
-        <v>0</v>
-      </c>
-      <c r="I192">
-        <v>0</v>
-      </c>
       <c r="J192" t="s">
         <v>536</v>
       </c>
@@ -8793,23 +5541,8 @@
       <c r="C193">
         <v>82</v>
       </c>
-      <c r="D193">
-        <v>0</v>
-      </c>
-      <c r="E193">
-        <v>0</v>
-      </c>
-      <c r="F193">
-        <v>0</v>
-      </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
       <c r="H193">
         <v>5</v>
-      </c>
-      <c r="I193">
-        <v>0</v>
       </c>
       <c r="J193" t="s">
         <v>537</v>
@@ -8822,27 +5555,6 @@
       <c r="B194" t="s">
         <v>343</v>
       </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-      <c r="D194">
-        <v>0</v>
-      </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-      <c r="F194">
-        <v>0</v>
-      </c>
-      <c r="G194">
-        <v>0</v>
-      </c>
-      <c r="H194">
-        <v>0</v>
-      </c>
-      <c r="I194">
-        <v>0</v>
-      </c>
       <c r="J194" t="s">
         <v>538</v>
       </c>
@@ -8854,27 +5566,6 @@
       <c r="B195" t="s">
         <v>339</v>
       </c>
-      <c r="C195">
-        <v>0</v>
-      </c>
-      <c r="D195">
-        <v>0</v>
-      </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195">
-        <v>0</v>
-      </c>
-      <c r="G195">
-        <v>0</v>
-      </c>
-      <c r="H195">
-        <v>0</v>
-      </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
       <c r="J195" t="s">
         <v>403</v>
       </c>
@@ -8886,26 +5577,8 @@
       <c r="B196" t="s">
         <v>343</v>
       </c>
-      <c r="C196">
-        <v>0</v>
-      </c>
-      <c r="D196">
-        <v>0</v>
-      </c>
-      <c r="E196">
-        <v>0</v>
-      </c>
       <c r="F196">
         <v>4</v>
-      </c>
-      <c r="G196">
-        <v>0</v>
-      </c>
-      <c r="H196">
-        <v>0</v>
-      </c>
-      <c r="I196">
-        <v>0</v>
       </c>
       <c r="J196" t="s">
         <v>539</v>
@@ -8921,23 +5594,8 @@
       <c r="C197">
         <v>1</v>
       </c>
-      <c r="D197">
-        <v>0</v>
-      </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
       <c r="F197">
         <v>4</v>
-      </c>
-      <c r="G197">
-        <v>0</v>
-      </c>
-      <c r="H197">
-        <v>0</v>
-      </c>
-      <c r="I197">
-        <v>0</v>
       </c>
       <c r="J197" t="s">
         <v>540</v>
@@ -8953,24 +5611,6 @@
       <c r="C198">
         <v>2</v>
       </c>
-      <c r="D198">
-        <v>0</v>
-      </c>
-      <c r="E198">
-        <v>0</v>
-      </c>
-      <c r="F198">
-        <v>0</v>
-      </c>
-      <c r="G198">
-        <v>0</v>
-      </c>
-      <c r="H198">
-        <v>0</v>
-      </c>
-      <c r="I198">
-        <v>0</v>
-      </c>
       <c r="J198" t="s">
         <v>541</v>
       </c>
@@ -8982,27 +5622,6 @@
       <c r="B199" t="s">
         <v>334</v>
       </c>
-      <c r="C199">
-        <v>0</v>
-      </c>
-      <c r="D199">
-        <v>0</v>
-      </c>
-      <c r="E199">
-        <v>0</v>
-      </c>
-      <c r="F199">
-        <v>0</v>
-      </c>
-      <c r="G199">
-        <v>0</v>
-      </c>
-      <c r="H199">
-        <v>0</v>
-      </c>
-      <c r="I199">
-        <v>0</v>
-      </c>
       <c r="J199" t="s">
         <v>542</v>
       </c>
@@ -9014,27 +5633,6 @@
       <c r="B200" t="s">
         <v>335</v>
       </c>
-      <c r="C200">
-        <v>0</v>
-      </c>
-      <c r="D200">
-        <v>0</v>
-      </c>
-      <c r="E200">
-        <v>0</v>
-      </c>
-      <c r="F200">
-        <v>0</v>
-      </c>
-      <c r="G200">
-        <v>0</v>
-      </c>
-      <c r="H200">
-        <v>0</v>
-      </c>
-      <c r="I200">
-        <v>0</v>
-      </c>
       <c r="J200" t="s">
         <v>543</v>
       </c>
@@ -9046,26 +5644,14 @@
       <c r="B201" t="s">
         <v>335</v>
       </c>
-      <c r="C201">
-        <v>0</v>
-      </c>
       <c r="D201">
         <v>3</v>
       </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
       <c r="F201">
         <v>2</v>
       </c>
-      <c r="G201">
-        <v>0</v>
-      </c>
       <c r="H201">
         <v>5</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
       </c>
       <c r="J201" t="s">
         <v>544</v>
@@ -9078,27 +5664,6 @@
       <c r="B202" t="s">
         <v>343</v>
       </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-      <c r="D202">
-        <v>0</v>
-      </c>
-      <c r="E202">
-        <v>0</v>
-      </c>
-      <c r="F202">
-        <v>0</v>
-      </c>
-      <c r="G202">
-        <v>0</v>
-      </c>
-      <c r="H202">
-        <v>0</v>
-      </c>
-      <c r="I202">
-        <v>0</v>
-      </c>
       <c r="J202" t="s">
         <v>545</v>
       </c>
@@ -9110,27 +5675,6 @@
       <c r="B203" t="s">
         <v>343</v>
       </c>
-      <c r="C203">
-        <v>0</v>
-      </c>
-      <c r="D203">
-        <v>0</v>
-      </c>
-      <c r="E203">
-        <v>0</v>
-      </c>
-      <c r="F203">
-        <v>0</v>
-      </c>
-      <c r="G203">
-        <v>0</v>
-      </c>
-      <c r="H203">
-        <v>0</v>
-      </c>
-      <c r="I203">
-        <v>0</v>
-      </c>
       <c r="J203" t="s">
         <v>546</v>
       </c>
@@ -9145,20 +5689,11 @@
       <c r="C204">
         <v>3</v>
       </c>
-      <c r="D204">
-        <v>0</v>
-      </c>
       <c r="E204">
         <v>19</v>
       </c>
       <c r="F204">
         <v>39</v>
-      </c>
-      <c r="G204">
-        <v>0</v>
-      </c>
-      <c r="H204">
-        <v>0</v>
       </c>
       <c r="I204">
         <v>4</v>
@@ -9174,27 +5709,6 @@
       <c r="B205" t="s">
         <v>339</v>
       </c>
-      <c r="C205">
-        <v>0</v>
-      </c>
-      <c r="D205">
-        <v>0</v>
-      </c>
-      <c r="E205">
-        <v>0</v>
-      </c>
-      <c r="F205">
-        <v>0</v>
-      </c>
-      <c r="G205">
-        <v>0</v>
-      </c>
-      <c r="H205">
-        <v>0</v>
-      </c>
-      <c r="I205">
-        <v>0</v>
-      </c>
       <c r="J205" t="s">
         <v>497</v>
       </c>
@@ -9206,27 +5720,6 @@
       <c r="B206" t="s">
         <v>337</v>
       </c>
-      <c r="C206">
-        <v>0</v>
-      </c>
-      <c r="D206">
-        <v>0</v>
-      </c>
-      <c r="E206">
-        <v>0</v>
-      </c>
-      <c r="F206">
-        <v>0</v>
-      </c>
-      <c r="G206">
-        <v>0</v>
-      </c>
-      <c r="H206">
-        <v>0</v>
-      </c>
-      <c r="I206">
-        <v>0</v>
-      </c>
       <c r="J206" t="s">
         <v>548</v>
       </c>
@@ -9241,23 +5734,8 @@
       <c r="C207">
         <v>1</v>
       </c>
-      <c r="D207">
-        <v>0</v>
-      </c>
-      <c r="E207">
-        <v>0</v>
-      </c>
       <c r="F207">
         <v>86</v>
-      </c>
-      <c r="G207">
-        <v>0</v>
-      </c>
-      <c r="H207">
-        <v>0</v>
-      </c>
-      <c r="I207">
-        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>549</v>
@@ -9270,27 +5748,6 @@
       <c r="B208" t="s">
         <v>330</v>
       </c>
-      <c r="C208">
-        <v>0</v>
-      </c>
-      <c r="D208">
-        <v>0</v>
-      </c>
-      <c r="E208">
-        <v>0</v>
-      </c>
-      <c r="F208">
-        <v>0</v>
-      </c>
-      <c r="G208">
-        <v>0</v>
-      </c>
-      <c r="H208">
-        <v>0</v>
-      </c>
-      <c r="I208">
-        <v>0</v>
-      </c>
       <c r="J208" t="s">
         <v>550</v>
       </c>
@@ -9302,27 +5759,6 @@
       <c r="B209" t="s">
         <v>334</v>
       </c>
-      <c r="C209">
-        <v>0</v>
-      </c>
-      <c r="D209">
-        <v>0</v>
-      </c>
-      <c r="E209">
-        <v>0</v>
-      </c>
-      <c r="F209">
-        <v>0</v>
-      </c>
-      <c r="G209">
-        <v>0</v>
-      </c>
-      <c r="H209">
-        <v>0</v>
-      </c>
-      <c r="I209">
-        <v>0</v>
-      </c>
       <c r="J209" t="s">
         <v>551</v>
       </c>
@@ -9337,23 +5773,8 @@
       <c r="C210">
         <v>39</v>
       </c>
-      <c r="D210">
-        <v>0</v>
-      </c>
       <c r="E210">
         <v>41</v>
-      </c>
-      <c r="F210">
-        <v>0</v>
-      </c>
-      <c r="G210">
-        <v>0</v>
-      </c>
-      <c r="H210">
-        <v>0</v>
-      </c>
-      <c r="I210">
-        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>552</v>
@@ -9369,23 +5790,11 @@
       <c r="C211">
         <v>15</v>
       </c>
-      <c r="D211">
-        <v>0</v>
-      </c>
-      <c r="E211">
-        <v>0</v>
-      </c>
       <c r="F211">
         <v>8</v>
       </c>
-      <c r="G211">
-        <v>0</v>
-      </c>
       <c r="H211">
         <v>6</v>
-      </c>
-      <c r="I211">
-        <v>0</v>
       </c>
       <c r="J211" t="s">
         <v>508</v>
@@ -9398,27 +5807,6 @@
       <c r="B212" t="s">
         <v>330</v>
       </c>
-      <c r="C212">
-        <v>0</v>
-      </c>
-      <c r="D212">
-        <v>0</v>
-      </c>
-      <c r="E212">
-        <v>0</v>
-      </c>
-      <c r="F212">
-        <v>0</v>
-      </c>
-      <c r="G212">
-        <v>0</v>
-      </c>
-      <c r="H212">
-        <v>0</v>
-      </c>
-      <c r="I212">
-        <v>0</v>
-      </c>
       <c r="J212" t="s">
         <v>553</v>
       </c>
@@ -9433,24 +5821,6 @@
       <c r="C213">
         <v>2</v>
       </c>
-      <c r="D213">
-        <v>0</v>
-      </c>
-      <c r="E213">
-        <v>0</v>
-      </c>
-      <c r="F213">
-        <v>0</v>
-      </c>
-      <c r="G213">
-        <v>0</v>
-      </c>
-      <c r="H213">
-        <v>0</v>
-      </c>
-      <c r="I213">
-        <v>0</v>
-      </c>
       <c r="J213" t="s">
         <v>554</v>
       </c>
@@ -9465,23 +5835,11 @@
       <c r="C214">
         <v>3</v>
       </c>
-      <c r="D214">
-        <v>0</v>
-      </c>
       <c r="E214">
         <v>8</v>
       </c>
-      <c r="F214">
-        <v>0</v>
-      </c>
-      <c r="G214">
-        <v>0</v>
-      </c>
       <c r="H214">
         <v>1</v>
-      </c>
-      <c r="I214">
-        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>555</v>
@@ -9497,23 +5855,14 @@
       <c r="C215">
         <v>4</v>
       </c>
-      <c r="D215">
-        <v>0</v>
-      </c>
       <c r="E215">
         <v>6</v>
       </c>
       <c r="F215">
         <v>18</v>
       </c>
-      <c r="G215">
-        <v>0</v>
-      </c>
       <c r="H215">
         <v>9</v>
-      </c>
-      <c r="I215">
-        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>556</v>
@@ -9526,27 +5875,6 @@
       <c r="B216" t="s">
         <v>330</v>
       </c>
-      <c r="C216">
-        <v>0</v>
-      </c>
-      <c r="D216">
-        <v>0</v>
-      </c>
-      <c r="E216">
-        <v>0</v>
-      </c>
-      <c r="F216">
-        <v>0</v>
-      </c>
-      <c r="G216">
-        <v>0</v>
-      </c>
-      <c r="H216">
-        <v>0</v>
-      </c>
-      <c r="I216">
-        <v>0</v>
-      </c>
       <c r="J216" t="s">
         <v>557</v>
       </c>
@@ -9561,24 +5889,6 @@
       <c r="C217">
         <v>2</v>
       </c>
-      <c r="D217">
-        <v>0</v>
-      </c>
-      <c r="E217">
-        <v>0</v>
-      </c>
-      <c r="F217">
-        <v>0</v>
-      </c>
-      <c r="G217">
-        <v>0</v>
-      </c>
-      <c r="H217">
-        <v>0</v>
-      </c>
-      <c r="I217">
-        <v>0</v>
-      </c>
       <c r="J217" t="s">
         <v>558</v>
       </c>
@@ -9590,27 +5900,6 @@
       <c r="B218" t="s">
         <v>337</v>
       </c>
-      <c r="C218">
-        <v>0</v>
-      </c>
-      <c r="D218">
-        <v>0</v>
-      </c>
-      <c r="E218">
-        <v>0</v>
-      </c>
-      <c r="F218">
-        <v>0</v>
-      </c>
-      <c r="G218">
-        <v>0</v>
-      </c>
-      <c r="H218">
-        <v>0</v>
-      </c>
-      <c r="I218">
-        <v>0</v>
-      </c>
       <c r="J218" t="s">
         <v>559</v>
       </c>
@@ -9625,23 +5914,14 @@
       <c r="C219">
         <v>23</v>
       </c>
-      <c r="D219">
-        <v>0</v>
-      </c>
       <c r="E219">
         <v>6</v>
       </c>
       <c r="F219">
         <v>8</v>
       </c>
-      <c r="G219">
-        <v>0</v>
-      </c>
       <c r="H219">
         <v>113</v>
-      </c>
-      <c r="I219">
-        <v>0</v>
       </c>
       <c r="J219" t="s">
         <v>560</v>
@@ -9654,27 +5934,6 @@
       <c r="B220" t="s">
         <v>329</v>
       </c>
-      <c r="C220">
-        <v>0</v>
-      </c>
-      <c r="D220">
-        <v>0</v>
-      </c>
-      <c r="E220">
-        <v>0</v>
-      </c>
-      <c r="F220">
-        <v>0</v>
-      </c>
-      <c r="G220">
-        <v>0</v>
-      </c>
-      <c r="H220">
-        <v>0</v>
-      </c>
-      <c r="I220">
-        <v>0</v>
-      </c>
       <c r="J220" t="s">
         <v>561</v>
       </c>
@@ -9686,27 +5945,6 @@
       <c r="B221" t="s">
         <v>329</v>
       </c>
-      <c r="C221">
-        <v>0</v>
-      </c>
-      <c r="D221">
-        <v>0</v>
-      </c>
-      <c r="E221">
-        <v>0</v>
-      </c>
-      <c r="F221">
-        <v>0</v>
-      </c>
-      <c r="G221">
-        <v>0</v>
-      </c>
-      <c r="H221">
-        <v>0</v>
-      </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
       <c r="J221" t="s">
         <v>562</v>
       </c>
@@ -9721,23 +5959,8 @@
       <c r="C222">
         <v>15</v>
       </c>
-      <c r="D222">
-        <v>0</v>
-      </c>
-      <c r="E222">
-        <v>0</v>
-      </c>
-      <c r="F222">
-        <v>0</v>
-      </c>
-      <c r="G222">
-        <v>0</v>
-      </c>
       <c r="H222">
         <v>2</v>
-      </c>
-      <c r="I222">
-        <v>0</v>
       </c>
       <c r="J222" t="s">
         <v>563</v>
@@ -9753,23 +5976,8 @@
       <c r="C223">
         <v>2</v>
       </c>
-      <c r="D223">
-        <v>0</v>
-      </c>
-      <c r="E223">
-        <v>0</v>
-      </c>
-      <c r="F223">
-        <v>0</v>
-      </c>
-      <c r="G223">
-        <v>0</v>
-      </c>
       <c r="H223">
         <v>1</v>
-      </c>
-      <c r="I223">
-        <v>0</v>
       </c>
       <c r="J223" t="s">
         <v>564</v>
@@ -9785,23 +5993,8 @@
       <c r="C224">
         <v>11</v>
       </c>
-      <c r="D224">
-        <v>0</v>
-      </c>
-      <c r="E224">
-        <v>0</v>
-      </c>
       <c r="F224">
         <v>1</v>
-      </c>
-      <c r="G224">
-        <v>0</v>
-      </c>
-      <c r="H224">
-        <v>0</v>
-      </c>
-      <c r="I224">
-        <v>0</v>
       </c>
       <c r="J224" t="s">
         <v>565</v>
@@ -9814,27 +6007,6 @@
       <c r="B225" t="s">
         <v>337</v>
       </c>
-      <c r="C225">
-        <v>0</v>
-      </c>
-      <c r="D225">
-        <v>0</v>
-      </c>
-      <c r="E225">
-        <v>0</v>
-      </c>
-      <c r="F225">
-        <v>0</v>
-      </c>
-      <c r="G225">
-        <v>0</v>
-      </c>
-      <c r="H225">
-        <v>0</v>
-      </c>
-      <c r="I225">
-        <v>0</v>
-      </c>
       <c r="J225" t="s">
         <v>416</v>
       </c>
@@ -9846,26 +6018,8 @@
       <c r="B226" t="s">
         <v>335</v>
       </c>
-      <c r="C226">
-        <v>0</v>
-      </c>
       <c r="D226">
         <v>32</v>
-      </c>
-      <c r="E226">
-        <v>0</v>
-      </c>
-      <c r="F226">
-        <v>0</v>
-      </c>
-      <c r="G226">
-        <v>0</v>
-      </c>
-      <c r="H226">
-        <v>0</v>
-      </c>
-      <c r="I226">
-        <v>0</v>
       </c>
       <c r="J226" t="s">
         <v>447</v>
@@ -9881,24 +6035,6 @@
       <c r="C227">
         <v>3</v>
       </c>
-      <c r="D227">
-        <v>0</v>
-      </c>
-      <c r="E227">
-        <v>0</v>
-      </c>
-      <c r="F227">
-        <v>0</v>
-      </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227">
-        <v>0</v>
-      </c>
-      <c r="I227">
-        <v>0</v>
-      </c>
       <c r="J227" t="s">
         <v>566</v>
       </c>
@@ -9913,23 +6049,8 @@
       <c r="C228">
         <v>5</v>
       </c>
-      <c r="D228">
-        <v>0</v>
-      </c>
-      <c r="E228">
-        <v>0</v>
-      </c>
-      <c r="F228">
-        <v>0</v>
-      </c>
-      <c r="G228">
-        <v>0</v>
-      </c>
       <c r="H228">
         <v>1</v>
-      </c>
-      <c r="I228">
-        <v>0</v>
       </c>
       <c r="J228" t="s">
         <v>567</v>
@@ -9945,23 +6066,8 @@
       <c r="C229">
         <v>4</v>
       </c>
-      <c r="D229">
-        <v>0</v>
-      </c>
-      <c r="E229">
-        <v>0</v>
-      </c>
       <c r="F229">
         <v>15</v>
-      </c>
-      <c r="G229">
-        <v>0</v>
-      </c>
-      <c r="H229">
-        <v>0</v>
-      </c>
-      <c r="I229">
-        <v>0</v>
       </c>
       <c r="J229" t="s">
         <v>568</v>
@@ -9974,27 +6080,6 @@
       <c r="B230" t="s">
         <v>331</v>
       </c>
-      <c r="C230">
-        <v>0</v>
-      </c>
-      <c r="D230">
-        <v>0</v>
-      </c>
-      <c r="E230">
-        <v>0</v>
-      </c>
-      <c r="F230">
-        <v>0</v>
-      </c>
-      <c r="G230">
-        <v>0</v>
-      </c>
-      <c r="H230">
-        <v>0</v>
-      </c>
-      <c r="I230">
-        <v>0</v>
-      </c>
       <c r="J230" t="s">
         <v>569</v>
       </c>
@@ -10006,27 +6091,6 @@
       <c r="B231" t="s">
         <v>340</v>
       </c>
-      <c r="C231">
-        <v>0</v>
-      </c>
-      <c r="D231">
-        <v>0</v>
-      </c>
-      <c r="E231">
-        <v>0</v>
-      </c>
-      <c r="F231">
-        <v>0</v>
-      </c>
-      <c r="G231">
-        <v>0</v>
-      </c>
-      <c r="H231">
-        <v>0</v>
-      </c>
-      <c r="I231">
-        <v>0</v>
-      </c>
       <c r="J231" t="s">
         <v>570</v>
       </c>
@@ -10038,27 +6102,6 @@
       <c r="B232" t="s">
         <v>330</v>
       </c>
-      <c r="C232">
-        <v>0</v>
-      </c>
-      <c r="D232">
-        <v>0</v>
-      </c>
-      <c r="E232">
-        <v>0</v>
-      </c>
-      <c r="F232">
-        <v>0</v>
-      </c>
-      <c r="G232">
-        <v>0</v>
-      </c>
-      <c r="H232">
-        <v>0</v>
-      </c>
-      <c r="I232">
-        <v>0</v>
-      </c>
       <c r="J232" t="s">
         <v>571</v>
       </c>
@@ -10070,27 +6113,6 @@
       <c r="B233" t="s">
         <v>330</v>
       </c>
-      <c r="C233">
-        <v>0</v>
-      </c>
-      <c r="D233">
-        <v>0</v>
-      </c>
-      <c r="E233">
-        <v>0</v>
-      </c>
-      <c r="F233">
-        <v>0</v>
-      </c>
-      <c r="G233">
-        <v>0</v>
-      </c>
-      <c r="H233">
-        <v>0</v>
-      </c>
-      <c r="I233">
-        <v>0</v>
-      </c>
       <c r="J233" t="s">
         <v>571</v>
       </c>
@@ -10105,24 +6127,6 @@
       <c r="C234">
         <v>1</v>
       </c>
-      <c r="D234">
-        <v>0</v>
-      </c>
-      <c r="E234">
-        <v>0</v>
-      </c>
-      <c r="F234">
-        <v>0</v>
-      </c>
-      <c r="G234">
-        <v>0</v>
-      </c>
-      <c r="H234">
-        <v>0</v>
-      </c>
-      <c r="I234">
-        <v>0</v>
-      </c>
       <c r="J234" t="s">
         <v>572</v>
       </c>
@@ -10137,23 +6141,8 @@
       <c r="C235">
         <v>4</v>
       </c>
-      <c r="D235">
-        <v>0</v>
-      </c>
-      <c r="E235">
-        <v>0</v>
-      </c>
       <c r="F235">
         <v>4</v>
-      </c>
-      <c r="G235">
-        <v>0</v>
-      </c>
-      <c r="H235">
-        <v>0</v>
-      </c>
-      <c r="I235">
-        <v>0</v>
       </c>
       <c r="J235" t="s">
         <v>573</v>
@@ -10166,27 +6155,6 @@
       <c r="B236" t="s">
         <v>332</v>
       </c>
-      <c r="C236">
-        <v>0</v>
-      </c>
-      <c r="D236">
-        <v>0</v>
-      </c>
-      <c r="E236">
-        <v>0</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
-      </c>
-      <c r="G236">
-        <v>0</v>
-      </c>
-      <c r="H236">
-        <v>0</v>
-      </c>
-      <c r="I236">
-        <v>0</v>
-      </c>
       <c r="J236" t="s">
         <v>574</v>
       </c>
@@ -10201,23 +6169,11 @@
       <c r="C237">
         <v>6</v>
       </c>
-      <c r="D237">
-        <v>0</v>
-      </c>
       <c r="E237">
         <v>5</v>
       </c>
-      <c r="F237">
-        <v>0</v>
-      </c>
-      <c r="G237">
-        <v>0</v>
-      </c>
       <c r="H237">
         <v>2</v>
-      </c>
-      <c r="I237">
-        <v>0</v>
       </c>
       <c r="J237" t="s">
         <v>575</v>
@@ -10233,24 +6189,6 @@
       <c r="C238">
         <v>1</v>
       </c>
-      <c r="D238">
-        <v>0</v>
-      </c>
-      <c r="E238">
-        <v>0</v>
-      </c>
-      <c r="F238">
-        <v>0</v>
-      </c>
-      <c r="G238">
-        <v>0</v>
-      </c>
-      <c r="H238">
-        <v>0</v>
-      </c>
-      <c r="I238">
-        <v>0</v>
-      </c>
       <c r="J238" t="s">
         <v>576</v>
       </c>
@@ -10262,27 +6200,6 @@
       <c r="B239" t="s">
         <v>335</v>
       </c>
-      <c r="C239">
-        <v>0</v>
-      </c>
-      <c r="D239">
-        <v>0</v>
-      </c>
-      <c r="E239">
-        <v>0</v>
-      </c>
-      <c r="F239">
-        <v>0</v>
-      </c>
-      <c r="G239">
-        <v>0</v>
-      </c>
-      <c r="H239">
-        <v>0</v>
-      </c>
-      <c r="I239">
-        <v>0</v>
-      </c>
       <c r="J239" t="s">
         <v>577</v>
       </c>
@@ -10297,23 +6214,8 @@
       <c r="C240">
         <v>14</v>
       </c>
-      <c r="D240">
-        <v>0</v>
-      </c>
       <c r="E240">
         <v>1</v>
-      </c>
-      <c r="F240">
-        <v>0</v>
-      </c>
-      <c r="G240">
-        <v>0</v>
-      </c>
-      <c r="H240">
-        <v>0</v>
-      </c>
-      <c r="I240">
-        <v>0</v>
       </c>
       <c r="J240" t="s">
         <v>578</v>
@@ -10326,27 +6228,6 @@
       <c r="B241" t="s">
         <v>334</v>
       </c>
-      <c r="C241">
-        <v>0</v>
-      </c>
-      <c r="D241">
-        <v>0</v>
-      </c>
-      <c r="E241">
-        <v>0</v>
-      </c>
-      <c r="F241">
-        <v>0</v>
-      </c>
-      <c r="G241">
-        <v>0</v>
-      </c>
-      <c r="H241">
-        <v>0</v>
-      </c>
-      <c r="I241">
-        <v>0</v>
-      </c>
       <c r="J241" t="s">
         <v>579</v>
       </c>
@@ -10358,27 +6239,6 @@
       <c r="B242" t="s">
         <v>329</v>
       </c>
-      <c r="C242">
-        <v>0</v>
-      </c>
-      <c r="D242">
-        <v>0</v>
-      </c>
-      <c r="E242">
-        <v>0</v>
-      </c>
-      <c r="F242">
-        <v>0</v>
-      </c>
-      <c r="G242">
-        <v>0</v>
-      </c>
-      <c r="H242">
-        <v>0</v>
-      </c>
-      <c r="I242">
-        <v>0</v>
-      </c>
       <c r="J242" t="s">
         <v>580</v>
       </c>
@@ -10393,24 +6253,6 @@
       <c r="C243">
         <v>3</v>
       </c>
-      <c r="D243">
-        <v>0</v>
-      </c>
-      <c r="E243">
-        <v>0</v>
-      </c>
-      <c r="F243">
-        <v>0</v>
-      </c>
-      <c r="G243">
-        <v>0</v>
-      </c>
-      <c r="H243">
-        <v>0</v>
-      </c>
-      <c r="I243">
-        <v>0</v>
-      </c>
       <c r="J243" t="s">
         <v>581</v>
       </c>
@@ -10425,23 +6267,8 @@
       <c r="C244">
         <v>14</v>
       </c>
-      <c r="D244">
-        <v>0</v>
-      </c>
-      <c r="E244">
-        <v>0</v>
-      </c>
-      <c r="F244">
-        <v>0</v>
-      </c>
-      <c r="G244">
-        <v>0</v>
-      </c>
       <c r="H244">
         <v>1</v>
-      </c>
-      <c r="I244">
-        <v>0</v>
       </c>
       <c r="J244" t="s">
         <v>582</v>
@@ -10457,23 +6284,8 @@
       <c r="C245">
         <v>3</v>
       </c>
-      <c r="D245">
-        <v>0</v>
-      </c>
-      <c r="E245">
-        <v>0</v>
-      </c>
       <c r="F245">
         <v>1</v>
-      </c>
-      <c r="G245">
-        <v>0</v>
-      </c>
-      <c r="H245">
-        <v>0</v>
-      </c>
-      <c r="I245">
-        <v>0</v>
       </c>
       <c r="J245" t="s">
         <v>583</v>
@@ -10486,27 +6298,6 @@
       <c r="B246" t="s">
         <v>334</v>
       </c>
-      <c r="C246">
-        <v>0</v>
-      </c>
-      <c r="D246">
-        <v>0</v>
-      </c>
-      <c r="E246">
-        <v>0</v>
-      </c>
-      <c r="F246">
-        <v>0</v>
-      </c>
-      <c r="G246">
-        <v>0</v>
-      </c>
-      <c r="H246">
-        <v>0</v>
-      </c>
-      <c r="I246">
-        <v>0</v>
-      </c>
       <c r="J246" t="s">
         <v>584</v>
       </c>
@@ -10518,26 +6309,8 @@
       <c r="B247" t="s">
         <v>329</v>
       </c>
-      <c r="C247">
-        <v>0</v>
-      </c>
-      <c r="D247">
-        <v>0</v>
-      </c>
-      <c r="E247">
-        <v>0</v>
-      </c>
-      <c r="F247">
-        <v>0</v>
-      </c>
-      <c r="G247">
-        <v>0</v>
-      </c>
       <c r="H247">
         <v>3</v>
-      </c>
-      <c r="I247">
-        <v>0</v>
       </c>
       <c r="J247" t="s">
         <v>538</v>
@@ -10553,24 +6326,6 @@
       <c r="C248">
         <v>1</v>
       </c>
-      <c r="D248">
-        <v>0</v>
-      </c>
-      <c r="E248">
-        <v>0</v>
-      </c>
-      <c r="F248">
-        <v>0</v>
-      </c>
-      <c r="G248">
-        <v>0</v>
-      </c>
-      <c r="H248">
-        <v>0</v>
-      </c>
-      <c r="I248">
-        <v>0</v>
-      </c>
       <c r="J248" t="s">
         <v>585</v>
       </c>
@@ -10582,27 +6337,6 @@
       <c r="B249" t="s">
         <v>334</v>
       </c>
-      <c r="C249">
-        <v>0</v>
-      </c>
-      <c r="D249">
-        <v>0</v>
-      </c>
-      <c r="E249">
-        <v>0</v>
-      </c>
-      <c r="F249">
-        <v>0</v>
-      </c>
-      <c r="G249">
-        <v>0</v>
-      </c>
-      <c r="H249">
-        <v>0</v>
-      </c>
-      <c r="I249">
-        <v>0</v>
-      </c>
       <c r="J249" t="s">
         <v>586</v>
       </c>
@@ -10614,27 +6348,6 @@
       <c r="B250" t="s">
         <v>330</v>
       </c>
-      <c r="C250">
-        <v>0</v>
-      </c>
-      <c r="D250">
-        <v>0</v>
-      </c>
-      <c r="E250">
-        <v>0</v>
-      </c>
-      <c r="F250">
-        <v>0</v>
-      </c>
-      <c r="G250">
-        <v>0</v>
-      </c>
-      <c r="H250">
-        <v>0</v>
-      </c>
-      <c r="I250">
-        <v>0</v>
-      </c>
       <c r="J250" t="s">
         <v>587</v>
       </c>
@@ -10646,27 +6359,6 @@
       <c r="B251" t="s">
         <v>334</v>
       </c>
-      <c r="C251">
-        <v>0</v>
-      </c>
-      <c r="D251">
-        <v>0</v>
-      </c>
-      <c r="E251">
-        <v>0</v>
-      </c>
-      <c r="F251">
-        <v>0</v>
-      </c>
-      <c r="G251">
-        <v>0</v>
-      </c>
-      <c r="H251">
-        <v>0</v>
-      </c>
-      <c r="I251">
-        <v>0</v>
-      </c>
       <c r="J251" t="s">
         <v>588</v>
       </c>
@@ -10678,27 +6370,6 @@
       <c r="B252" t="s">
         <v>339</v>
       </c>
-      <c r="C252">
-        <v>0</v>
-      </c>
-      <c r="D252">
-        <v>0</v>
-      </c>
-      <c r="E252">
-        <v>0</v>
-      </c>
-      <c r="F252">
-        <v>0</v>
-      </c>
-      <c r="G252">
-        <v>0</v>
-      </c>
-      <c r="H252">
-        <v>0</v>
-      </c>
-      <c r="I252">
-        <v>0</v>
-      </c>
       <c r="J252" t="s">
         <v>459</v>
       </c>
@@ -10710,26 +6381,8 @@
       <c r="B253" t="s">
         <v>339</v>
       </c>
-      <c r="C253">
-        <v>0</v>
-      </c>
-      <c r="D253">
-        <v>0</v>
-      </c>
-      <c r="E253">
-        <v>0</v>
-      </c>
-      <c r="F253">
-        <v>0</v>
-      </c>
-      <c r="G253">
-        <v>0</v>
-      </c>
       <c r="H253">
         <v>13</v>
-      </c>
-      <c r="I253">
-        <v>0</v>
       </c>
       <c r="J253" t="s">
         <v>589</v>
@@ -10742,26 +6395,8 @@
       <c r="B254" t="s">
         <v>339</v>
       </c>
-      <c r="C254">
-        <v>0</v>
-      </c>
-      <c r="D254">
-        <v>0</v>
-      </c>
-      <c r="E254">
-        <v>0</v>
-      </c>
-      <c r="F254">
-        <v>0</v>
-      </c>
-      <c r="G254">
-        <v>0</v>
-      </c>
       <c r="H254">
         <v>1</v>
-      </c>
-      <c r="I254">
-        <v>0</v>
       </c>
       <c r="J254" t="s">
         <v>590</v>
@@ -10777,23 +6412,14 @@
       <c r="C255">
         <v>3</v>
       </c>
-      <c r="D255">
-        <v>0</v>
-      </c>
       <c r="E255">
         <v>13</v>
       </c>
       <c r="F255">
         <v>11</v>
       </c>
-      <c r="G255">
-        <v>0</v>
-      </c>
       <c r="H255">
         <v>99</v>
-      </c>
-      <c r="I255">
-        <v>0</v>
       </c>
       <c r="J255" t="s">
         <v>591</v>
@@ -10806,27 +6432,6 @@
       <c r="B256" t="s">
         <v>337</v>
       </c>
-      <c r="C256">
-        <v>0</v>
-      </c>
-      <c r="D256">
-        <v>0</v>
-      </c>
-      <c r="E256">
-        <v>0</v>
-      </c>
-      <c r="F256">
-        <v>0</v>
-      </c>
-      <c r="G256">
-        <v>0</v>
-      </c>
-      <c r="H256">
-        <v>0</v>
-      </c>
-      <c r="I256">
-        <v>0</v>
-      </c>
       <c r="J256" t="s">
         <v>592</v>
       </c>
@@ -10838,27 +6443,6 @@
       <c r="B257" t="s">
         <v>334</v>
       </c>
-      <c r="C257">
-        <v>0</v>
-      </c>
-      <c r="D257">
-        <v>0</v>
-      </c>
-      <c r="E257">
-        <v>0</v>
-      </c>
-      <c r="F257">
-        <v>0</v>
-      </c>
-      <c r="G257">
-        <v>0</v>
-      </c>
-      <c r="H257">
-        <v>0</v>
-      </c>
-      <c r="I257">
-        <v>0</v>
-      </c>
       <c r="J257" t="s">
         <v>593</v>
       </c>
@@ -10870,27 +6454,6 @@
       <c r="B258" t="s">
         <v>330</v>
       </c>
-      <c r="C258">
-        <v>0</v>
-      </c>
-      <c r="D258">
-        <v>0</v>
-      </c>
-      <c r="E258">
-        <v>0</v>
-      </c>
-      <c r="F258">
-        <v>0</v>
-      </c>
-      <c r="G258">
-        <v>0</v>
-      </c>
-      <c r="H258">
-        <v>0</v>
-      </c>
-      <c r="I258">
-        <v>0</v>
-      </c>
       <c r="J258" t="s">
         <v>594</v>
       </c>
@@ -10905,23 +6468,8 @@
       <c r="C259">
         <v>7</v>
       </c>
-      <c r="D259">
-        <v>0</v>
-      </c>
-      <c r="E259">
-        <v>0</v>
-      </c>
-      <c r="F259">
-        <v>0</v>
-      </c>
-      <c r="G259">
-        <v>0</v>
-      </c>
       <c r="H259">
         <v>11</v>
-      </c>
-      <c r="I259">
-        <v>0</v>
       </c>
       <c r="J259" t="s">
         <v>595</v>
@@ -10937,24 +6485,6 @@
       <c r="C260">
         <v>2</v>
       </c>
-      <c r="D260">
-        <v>0</v>
-      </c>
-      <c r="E260">
-        <v>0</v>
-      </c>
-      <c r="F260">
-        <v>0</v>
-      </c>
-      <c r="G260">
-        <v>0</v>
-      </c>
-      <c r="H260">
-        <v>0</v>
-      </c>
-      <c r="I260">
-        <v>0</v>
-      </c>
       <c r="J260" t="s">
         <v>596</v>
       </c>
@@ -10966,27 +6496,6 @@
       <c r="B261" t="s">
         <v>339</v>
       </c>
-      <c r="C261">
-        <v>0</v>
-      </c>
-      <c r="D261">
-        <v>0</v>
-      </c>
-      <c r="E261">
-        <v>0</v>
-      </c>
-      <c r="F261">
-        <v>0</v>
-      </c>
-      <c r="G261">
-        <v>0</v>
-      </c>
-      <c r="H261">
-        <v>0</v>
-      </c>
-      <c r="I261">
-        <v>0</v>
-      </c>
       <c r="J261" t="s">
         <v>597</v>
       </c>
@@ -11001,23 +6510,8 @@
       <c r="C262">
         <v>6</v>
       </c>
-      <c r="D262">
-        <v>0</v>
-      </c>
-      <c r="E262">
-        <v>0</v>
-      </c>
-      <c r="F262">
-        <v>0</v>
-      </c>
-      <c r="G262">
-        <v>0</v>
-      </c>
       <c r="H262">
         <v>2</v>
-      </c>
-      <c r="I262">
-        <v>0</v>
       </c>
       <c r="J262" t="s">
         <v>598</v>
@@ -11030,27 +6524,6 @@
       <c r="B263" t="s">
         <v>337</v>
       </c>
-      <c r="C263">
-        <v>0</v>
-      </c>
-      <c r="D263">
-        <v>0</v>
-      </c>
-      <c r="E263">
-        <v>0</v>
-      </c>
-      <c r="F263">
-        <v>0</v>
-      </c>
-      <c r="G263">
-        <v>0</v>
-      </c>
-      <c r="H263">
-        <v>0</v>
-      </c>
-      <c r="I263">
-        <v>0</v>
-      </c>
       <c r="J263" t="s">
         <v>492</v>
       </c>
@@ -11062,27 +6535,6 @@
       <c r="B264" t="s">
         <v>337</v>
       </c>
-      <c r="C264">
-        <v>0</v>
-      </c>
-      <c r="D264">
-        <v>0</v>
-      </c>
-      <c r="E264">
-        <v>0</v>
-      </c>
-      <c r="F264">
-        <v>0</v>
-      </c>
-      <c r="G264">
-        <v>0</v>
-      </c>
-      <c r="H264">
-        <v>0</v>
-      </c>
-      <c r="I264">
-        <v>0</v>
-      </c>
       <c r="J264" t="s">
         <v>599</v>
       </c>
@@ -11097,24 +6549,6 @@
       <c r="C265">
         <v>1</v>
       </c>
-      <c r="D265">
-        <v>0</v>
-      </c>
-      <c r="E265">
-        <v>0</v>
-      </c>
-      <c r="F265">
-        <v>0</v>
-      </c>
-      <c r="G265">
-        <v>0</v>
-      </c>
-      <c r="H265">
-        <v>0</v>
-      </c>
-      <c r="I265">
-        <v>0</v>
-      </c>
       <c r="J265" t="s">
         <v>600</v>
       </c>
@@ -11126,27 +6560,6 @@
       <c r="B266" t="s">
         <v>334</v>
       </c>
-      <c r="C266">
-        <v>0</v>
-      </c>
-      <c r="D266">
-        <v>0</v>
-      </c>
-      <c r="E266">
-        <v>0</v>
-      </c>
-      <c r="F266">
-        <v>0</v>
-      </c>
-      <c r="G266">
-        <v>0</v>
-      </c>
-      <c r="H266">
-        <v>0</v>
-      </c>
-      <c r="I266">
-        <v>0</v>
-      </c>
       <c r="J266" t="s">
         <v>601</v>
       </c>
@@ -11158,27 +6571,6 @@
       <c r="B267" t="s">
         <v>334</v>
       </c>
-      <c r="C267">
-        <v>0</v>
-      </c>
-      <c r="D267">
-        <v>0</v>
-      </c>
-      <c r="E267">
-        <v>0</v>
-      </c>
-      <c r="F267">
-        <v>0</v>
-      </c>
-      <c r="G267">
-        <v>0</v>
-      </c>
-      <c r="H267">
-        <v>0</v>
-      </c>
-      <c r="I267">
-        <v>0</v>
-      </c>
       <c r="J267" t="s">
         <v>602</v>
       </c>
@@ -11193,18 +6585,6 @@
       <c r="C268">
         <v>29</v>
       </c>
-      <c r="D268">
-        <v>0</v>
-      </c>
-      <c r="E268">
-        <v>0</v>
-      </c>
-      <c r="F268">
-        <v>0</v>
-      </c>
-      <c r="G268">
-        <v>0</v>
-      </c>
       <c r="H268">
         <v>2</v>
       </c>
@@ -11225,23 +6605,8 @@
       <c r="C269">
         <v>165</v>
       </c>
-      <c r="D269">
-        <v>0</v>
-      </c>
-      <c r="E269">
-        <v>0</v>
-      </c>
       <c r="F269">
         <v>1</v>
-      </c>
-      <c r="G269">
-        <v>0</v>
-      </c>
-      <c r="H269">
-        <v>0</v>
-      </c>
-      <c r="I269">
-        <v>0</v>
       </c>
       <c r="J269" t="s">
         <v>604</v>
@@ -11257,24 +6622,6 @@
       <c r="C270">
         <v>1</v>
       </c>
-      <c r="D270">
-        <v>0</v>
-      </c>
-      <c r="E270">
-        <v>0</v>
-      </c>
-      <c r="F270">
-        <v>0</v>
-      </c>
-      <c r="G270">
-        <v>0</v>
-      </c>
-      <c r="H270">
-        <v>0</v>
-      </c>
-      <c r="I270">
-        <v>0</v>
-      </c>
       <c r="J270" t="s">
         <v>605</v>
       </c>
@@ -11286,26 +6633,8 @@
       <c r="B271" t="s">
         <v>334</v>
       </c>
-      <c r="C271">
-        <v>0</v>
-      </c>
-      <c r="D271">
-        <v>0</v>
-      </c>
-      <c r="E271">
-        <v>0</v>
-      </c>
       <c r="F271">
         <v>3</v>
-      </c>
-      <c r="G271">
-        <v>0</v>
-      </c>
-      <c r="H271">
-        <v>0</v>
-      </c>
-      <c r="I271">
-        <v>0</v>
       </c>
       <c r="J271" t="s">
         <v>606</v>
@@ -11318,26 +6647,8 @@
       <c r="B272" t="s">
         <v>339</v>
       </c>
-      <c r="C272">
-        <v>0</v>
-      </c>
-      <c r="D272">
-        <v>0</v>
-      </c>
-      <c r="E272">
-        <v>0</v>
-      </c>
       <c r="F272">
         <v>1</v>
-      </c>
-      <c r="G272">
-        <v>0</v>
-      </c>
-      <c r="H272">
-        <v>0</v>
-      </c>
-      <c r="I272">
-        <v>0</v>
       </c>
       <c r="J272" t="s">
         <v>607</v>
@@ -11350,27 +6661,6 @@
       <c r="B273" t="s">
         <v>343</v>
       </c>
-      <c r="C273">
-        <v>0</v>
-      </c>
-      <c r="D273">
-        <v>0</v>
-      </c>
-      <c r="E273">
-        <v>0</v>
-      </c>
-      <c r="F273">
-        <v>0</v>
-      </c>
-      <c r="G273">
-        <v>0</v>
-      </c>
-      <c r="H273">
-        <v>0</v>
-      </c>
-      <c r="I273">
-        <v>0</v>
-      </c>
       <c r="J273" t="s">
         <v>608</v>
       </c>
@@ -11382,27 +6672,6 @@
       <c r="B274" t="s">
         <v>343</v>
       </c>
-      <c r="C274">
-        <v>0</v>
-      </c>
-      <c r="D274">
-        <v>0</v>
-      </c>
-      <c r="E274">
-        <v>0</v>
-      </c>
-      <c r="F274">
-        <v>0</v>
-      </c>
-      <c r="G274">
-        <v>0</v>
-      </c>
-      <c r="H274">
-        <v>0</v>
-      </c>
-      <c r="I274">
-        <v>0</v>
-      </c>
       <c r="J274" t="s">
         <v>609</v>
       </c>
@@ -11417,23 +6686,8 @@
       <c r="C275">
         <v>8</v>
       </c>
-      <c r="D275">
-        <v>0</v>
-      </c>
-      <c r="E275">
-        <v>0</v>
-      </c>
-      <c r="F275">
-        <v>0</v>
-      </c>
-      <c r="G275">
-        <v>0</v>
-      </c>
       <c r="H275">
         <v>17</v>
-      </c>
-      <c r="I275">
-        <v>0</v>
       </c>
       <c r="J275" t="s">
         <v>610</v>
@@ -11446,26 +6700,8 @@
       <c r="B276" t="s">
         <v>344</v>
       </c>
-      <c r="C276">
-        <v>0</v>
-      </c>
-      <c r="D276">
-        <v>0</v>
-      </c>
-      <c r="E276">
-        <v>0</v>
-      </c>
-      <c r="F276">
-        <v>0</v>
-      </c>
-      <c r="G276">
-        <v>0</v>
-      </c>
       <c r="H276">
         <v>1</v>
-      </c>
-      <c r="I276">
-        <v>0</v>
       </c>
       <c r="J276" t="s">
         <v>611</v>
@@ -11481,24 +6717,6 @@
       <c r="C277">
         <v>1</v>
       </c>
-      <c r="D277">
-        <v>0</v>
-      </c>
-      <c r="E277">
-        <v>0</v>
-      </c>
-      <c r="F277">
-        <v>0</v>
-      </c>
-      <c r="G277">
-        <v>0</v>
-      </c>
-      <c r="H277">
-        <v>0</v>
-      </c>
-      <c r="I277">
-        <v>0</v>
-      </c>
       <c r="J277" t="s">
         <v>612</v>
       </c>
@@ -11513,24 +6731,6 @@
       <c r="C278">
         <v>3</v>
       </c>
-      <c r="D278">
-        <v>0</v>
-      </c>
-      <c r="E278">
-        <v>0</v>
-      </c>
-      <c r="F278">
-        <v>0</v>
-      </c>
-      <c r="G278">
-        <v>0</v>
-      </c>
-      <c r="H278">
-        <v>0</v>
-      </c>
-      <c r="I278">
-        <v>0</v>
-      </c>
       <c r="J278" t="s">
         <v>515</v>
       </c>
@@ -11542,27 +6742,6 @@
       <c r="B279" t="s">
         <v>334</v>
       </c>
-      <c r="C279">
-        <v>0</v>
-      </c>
-      <c r="D279">
-        <v>0</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="H279">
-        <v>0</v>
-      </c>
-      <c r="I279">
-        <v>0</v>
-      </c>
       <c r="J279" t="s">
         <v>613</v>
       </c>
@@ -11574,26 +6753,8 @@
       <c r="B280" t="s">
         <v>335</v>
       </c>
-      <c r="C280">
-        <v>0</v>
-      </c>
-      <c r="D280">
-        <v>0</v>
-      </c>
       <c r="E280">
         <v>10</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="H280">
-        <v>0</v>
-      </c>
-      <c r="I280">
-        <v>0</v>
       </c>
       <c r="J280" t="s">
         <v>614</v>
@@ -11609,24 +6770,6 @@
       <c r="C281">
         <v>2</v>
       </c>
-      <c r="D281">
-        <v>0</v>
-      </c>
-      <c r="E281">
-        <v>0</v>
-      </c>
-      <c r="F281">
-        <v>0</v>
-      </c>
-      <c r="G281">
-        <v>0</v>
-      </c>
-      <c r="H281">
-        <v>0</v>
-      </c>
-      <c r="I281">
-        <v>0</v>
-      </c>
       <c r="J281" t="s">
         <v>615</v>
       </c>
@@ -11638,27 +6781,6 @@
       <c r="B282" t="s">
         <v>339</v>
       </c>
-      <c r="C282">
-        <v>0</v>
-      </c>
-      <c r="D282">
-        <v>0</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="H282">
-        <v>0</v>
-      </c>
-      <c r="I282">
-        <v>0</v>
-      </c>
       <c r="J282" t="s">
         <v>616</v>
       </c>
@@ -11670,27 +6792,6 @@
       <c r="B283" t="s">
         <v>334</v>
       </c>
-      <c r="C283">
-        <v>0</v>
-      </c>
-      <c r="D283">
-        <v>0</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="H283">
-        <v>0</v>
-      </c>
-      <c r="I283">
-        <v>0</v>
-      </c>
       <c r="J283" t="s">
         <v>617</v>
       </c>
@@ -11702,26 +6803,11 @@
       <c r="B284" t="s">
         <v>332</v>
       </c>
-      <c r="C284">
-        <v>0</v>
-      </c>
       <c r="D284">
         <v>42</v>
       </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>0</v>
-      </c>
-      <c r="G284">
-        <v>0</v>
-      </c>
       <c r="H284">
         <v>12</v>
-      </c>
-      <c r="I284">
-        <v>0</v>
       </c>
       <c r="J284" t="s">
         <v>444</v>
@@ -11737,24 +6823,6 @@
       <c r="C285">
         <v>3</v>
       </c>
-      <c r="D285">
-        <v>0</v>
-      </c>
-      <c r="E285">
-        <v>0</v>
-      </c>
-      <c r="F285">
-        <v>0</v>
-      </c>
-      <c r="G285">
-        <v>0</v>
-      </c>
-      <c r="H285">
-        <v>0</v>
-      </c>
-      <c r="I285">
-        <v>0</v>
-      </c>
       <c r="J285" t="s">
         <v>618</v>
       </c>
@@ -11766,27 +6834,6 @@
       <c r="B286" t="s">
         <v>329</v>
       </c>
-      <c r="C286">
-        <v>0</v>
-      </c>
-      <c r="D286">
-        <v>0</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="H286">
-        <v>0</v>
-      </c>
-      <c r="I286">
-        <v>0</v>
-      </c>
       <c r="J286" t="s">
         <v>619</v>
       </c>
@@ -11798,27 +6845,6 @@
       <c r="B287" t="s">
         <v>334</v>
       </c>
-      <c r="C287">
-        <v>0</v>
-      </c>
-      <c r="D287">
-        <v>0</v>
-      </c>
-      <c r="E287">
-        <v>0</v>
-      </c>
-      <c r="F287">
-        <v>0</v>
-      </c>
-      <c r="G287">
-        <v>0</v>
-      </c>
-      <c r="H287">
-        <v>0</v>
-      </c>
-      <c r="I287">
-        <v>0</v>
-      </c>
       <c r="J287" t="s">
         <v>620</v>
       </c>
@@ -11830,27 +6856,6 @@
       <c r="B288" t="s">
         <v>345</v>
       </c>
-      <c r="C288">
-        <v>0</v>
-      </c>
-      <c r="D288">
-        <v>0</v>
-      </c>
-      <c r="E288">
-        <v>0</v>
-      </c>
-      <c r="F288">
-        <v>0</v>
-      </c>
-      <c r="G288">
-        <v>0</v>
-      </c>
-      <c r="H288">
-        <v>0</v>
-      </c>
-      <c r="I288">
-        <v>0</v>
-      </c>
       <c r="J288" t="s">
         <v>621</v>
       </c>
@@ -11862,27 +6867,6 @@
       <c r="B289" t="s">
         <v>345</v>
       </c>
-      <c r="C289">
-        <v>0</v>
-      </c>
-      <c r="D289">
-        <v>0</v>
-      </c>
-      <c r="E289">
-        <v>0</v>
-      </c>
-      <c r="F289">
-        <v>0</v>
-      </c>
-      <c r="G289">
-        <v>0</v>
-      </c>
-      <c r="H289">
-        <v>0</v>
-      </c>
-      <c r="I289">
-        <v>0</v>
-      </c>
       <c r="J289" t="s">
         <v>622</v>
       </c>
@@ -11894,27 +6878,6 @@
       <c r="B290" t="s">
         <v>333</v>
       </c>
-      <c r="C290">
-        <v>0</v>
-      </c>
-      <c r="D290">
-        <v>0</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="H290">
-        <v>0</v>
-      </c>
-      <c r="I290">
-        <v>0</v>
-      </c>
       <c r="J290" t="s">
         <v>623</v>
       </c>
@@ -11929,23 +6892,8 @@
       <c r="C291">
         <v>11</v>
       </c>
-      <c r="D291">
-        <v>0</v>
-      </c>
-      <c r="E291">
-        <v>0</v>
-      </c>
       <c r="F291">
         <v>11</v>
-      </c>
-      <c r="G291">
-        <v>0</v>
-      </c>
-      <c r="H291">
-        <v>0</v>
-      </c>
-      <c r="I291">
-        <v>0</v>
       </c>
       <c r="J291" t="s">
         <v>624</v>
@@ -11961,23 +6909,11 @@
       <c r="C292">
         <v>22</v>
       </c>
-      <c r="D292">
-        <v>0</v>
-      </c>
-      <c r="E292">
-        <v>0</v>
-      </c>
       <c r="F292">
         <v>9</v>
       </c>
-      <c r="G292">
-        <v>0</v>
-      </c>
       <c r="H292">
         <v>3</v>
-      </c>
-      <c r="I292">
-        <v>0</v>
       </c>
       <c r="J292" t="s">
         <v>625</v>
@@ -11993,23 +6929,11 @@
       <c r="C293">
         <v>10</v>
       </c>
-      <c r="D293">
-        <v>0</v>
-      </c>
-      <c r="E293">
-        <v>0</v>
-      </c>
       <c r="F293">
         <v>100</v>
       </c>
-      <c r="G293">
-        <v>0</v>
-      </c>
       <c r="H293">
         <v>271</v>
-      </c>
-      <c r="I293">
-        <v>0</v>
       </c>
       <c r="J293" t="s">
         <v>626</v>
@@ -12022,26 +6946,14 @@
       <c r="B294" t="s">
         <v>328</v>
       </c>
-      <c r="C294">
-        <v>0</v>
-      </c>
-      <c r="D294">
-        <v>0</v>
-      </c>
       <c r="E294">
         <v>8</v>
       </c>
       <c r="F294">
         <v>59</v>
       </c>
-      <c r="G294">
-        <v>0</v>
-      </c>
       <c r="H294">
         <v>70</v>
-      </c>
-      <c r="I294">
-        <v>0</v>
       </c>
       <c r="J294" t="s">
         <v>627</v>
@@ -12054,27 +6966,6 @@
       <c r="B295" t="s">
         <v>334</v>
       </c>
-      <c r="C295">
-        <v>0</v>
-      </c>
-      <c r="D295">
-        <v>0</v>
-      </c>
-      <c r="E295">
-        <v>0</v>
-      </c>
-      <c r="F295">
-        <v>0</v>
-      </c>
-      <c r="G295">
-        <v>0</v>
-      </c>
-      <c r="H295">
-        <v>0</v>
-      </c>
-      <c r="I295">
-        <v>0</v>
-      </c>
       <c r="J295" t="s">
         <v>605</v>
       </c>
@@ -12086,27 +6977,6 @@
       <c r="B296" t="s">
         <v>330</v>
       </c>
-      <c r="C296">
-        <v>0</v>
-      </c>
-      <c r="D296">
-        <v>0</v>
-      </c>
-      <c r="E296">
-        <v>0</v>
-      </c>
-      <c r="F296">
-        <v>0</v>
-      </c>
-      <c r="G296">
-        <v>0</v>
-      </c>
-      <c r="H296">
-        <v>0</v>
-      </c>
-      <c r="I296">
-        <v>0</v>
-      </c>
       <c r="J296" t="s">
         <v>506</v>
       </c>
@@ -12121,24 +6991,6 @@
       <c r="C297">
         <v>3</v>
       </c>
-      <c r="D297">
-        <v>0</v>
-      </c>
-      <c r="E297">
-        <v>0</v>
-      </c>
-      <c r="F297">
-        <v>0</v>
-      </c>
-      <c r="G297">
-        <v>0</v>
-      </c>
-      <c r="H297">
-        <v>0</v>
-      </c>
-      <c r="I297">
-        <v>0</v>
-      </c>
       <c r="J297" t="s">
         <v>628</v>
       </c>
@@ -12150,27 +7002,6 @@
       <c r="B298" t="s">
         <v>343</v>
       </c>
-      <c r="C298">
-        <v>0</v>
-      </c>
-      <c r="D298">
-        <v>0</v>
-      </c>
-      <c r="E298">
-        <v>0</v>
-      </c>
-      <c r="F298">
-        <v>0</v>
-      </c>
-      <c r="G298">
-        <v>0</v>
-      </c>
-      <c r="H298">
-        <v>0</v>
-      </c>
-      <c r="I298">
-        <v>0</v>
-      </c>
       <c r="J298" t="s">
         <v>629</v>
       </c>
@@ -12185,24 +7016,6 @@
       <c r="C299">
         <v>7</v>
       </c>
-      <c r="D299">
-        <v>0</v>
-      </c>
-      <c r="E299">
-        <v>0</v>
-      </c>
-      <c r="F299">
-        <v>0</v>
-      </c>
-      <c r="G299">
-        <v>0</v>
-      </c>
-      <c r="H299">
-        <v>0</v>
-      </c>
-      <c r="I299">
-        <v>0</v>
-      </c>
       <c r="J299" t="s">
         <v>630</v>
       </c>
@@ -12214,26 +7027,8 @@
       <c r="B300" t="s">
         <v>339</v>
       </c>
-      <c r="C300">
-        <v>0</v>
-      </c>
-      <c r="D300">
-        <v>0</v>
-      </c>
-      <c r="E300">
-        <v>0</v>
-      </c>
-      <c r="F300">
-        <v>0</v>
-      </c>
-      <c r="G300">
-        <v>0</v>
-      </c>
       <c r="H300">
         <v>1</v>
-      </c>
-      <c r="I300">
-        <v>0</v>
       </c>
       <c r="J300" t="s">
         <v>631</v>
@@ -12246,27 +7041,6 @@
       <c r="B301" t="s">
         <v>329</v>
       </c>
-      <c r="C301">
-        <v>0</v>
-      </c>
-      <c r="D301">
-        <v>0</v>
-      </c>
-      <c r="E301">
-        <v>0</v>
-      </c>
-      <c r="F301">
-        <v>0</v>
-      </c>
-      <c r="G301">
-        <v>0</v>
-      </c>
-      <c r="H301">
-        <v>0</v>
-      </c>
-      <c r="I301">
-        <v>0</v>
-      </c>
       <c r="J301" t="s">
         <v>632</v>
       </c>
@@ -12278,27 +7052,6 @@
       <c r="B302" t="s">
         <v>332</v>
       </c>
-      <c r="C302">
-        <v>0</v>
-      </c>
-      <c r="D302">
-        <v>0</v>
-      </c>
-      <c r="E302">
-        <v>0</v>
-      </c>
-      <c r="F302">
-        <v>0</v>
-      </c>
-      <c r="G302">
-        <v>0</v>
-      </c>
-      <c r="H302">
-        <v>0</v>
-      </c>
-      <c r="I302">
-        <v>0</v>
-      </c>
       <c r="J302" t="s">
         <v>448</v>
       </c>
@@ -12310,27 +7063,6 @@
       <c r="B303" t="s">
         <v>329</v>
       </c>
-      <c r="C303">
-        <v>0</v>
-      </c>
-      <c r="D303">
-        <v>0</v>
-      </c>
-      <c r="E303">
-        <v>0</v>
-      </c>
-      <c r="F303">
-        <v>0</v>
-      </c>
-      <c r="G303">
-        <v>0</v>
-      </c>
-      <c r="H303">
-        <v>0</v>
-      </c>
-      <c r="I303">
-        <v>0</v>
-      </c>
       <c r="J303" t="s">
         <v>633</v>
       </c>
@@ -12342,27 +7074,6 @@
       <c r="B304" t="s">
         <v>330</v>
       </c>
-      <c r="C304">
-        <v>0</v>
-      </c>
-      <c r="D304">
-        <v>0</v>
-      </c>
-      <c r="E304">
-        <v>0</v>
-      </c>
-      <c r="F304">
-        <v>0</v>
-      </c>
-      <c r="G304">
-        <v>0</v>
-      </c>
-      <c r="H304">
-        <v>0</v>
-      </c>
-      <c r="I304">
-        <v>0</v>
-      </c>
       <c r="J304" t="s">
         <v>521</v>
       </c>
@@ -12377,24 +7088,6 @@
       <c r="C305">
         <v>4</v>
       </c>
-      <c r="D305">
-        <v>0</v>
-      </c>
-      <c r="E305">
-        <v>0</v>
-      </c>
-      <c r="F305">
-        <v>0</v>
-      </c>
-      <c r="G305">
-        <v>0</v>
-      </c>
-      <c r="H305">
-        <v>0</v>
-      </c>
-      <c r="I305">
-        <v>0</v>
-      </c>
       <c r="J305" t="s">
         <v>634</v>
       </c>
@@ -12409,24 +7102,6 @@
       <c r="C306">
         <v>11</v>
       </c>
-      <c r="D306">
-        <v>0</v>
-      </c>
-      <c r="E306">
-        <v>0</v>
-      </c>
-      <c r="F306">
-        <v>0</v>
-      </c>
-      <c r="G306">
-        <v>0</v>
-      </c>
-      <c r="H306">
-        <v>0</v>
-      </c>
-      <c r="I306">
-        <v>0</v>
-      </c>
       <c r="J306" t="s">
         <v>635</v>
       </c>
@@ -12441,23 +7116,11 @@
       <c r="C307">
         <v>3</v>
       </c>
-      <c r="D307">
-        <v>0</v>
-      </c>
-      <c r="E307">
-        <v>0</v>
-      </c>
       <c r="F307">
         <v>56</v>
       </c>
-      <c r="G307">
-        <v>0</v>
-      </c>
       <c r="H307">
         <v>72</v>
-      </c>
-      <c r="I307">
-        <v>0</v>
       </c>
       <c r="J307" t="s">
         <v>636</v>
@@ -12473,23 +7136,11 @@
       <c r="C308">
         <v>21</v>
       </c>
-      <c r="D308">
-        <v>0</v>
-      </c>
-      <c r="E308">
-        <v>0</v>
-      </c>
       <c r="F308">
         <v>17</v>
       </c>
-      <c r="G308">
-        <v>0</v>
-      </c>
       <c r="H308">
         <v>88</v>
-      </c>
-      <c r="I308">
-        <v>0</v>
       </c>
       <c r="J308" t="s">
         <v>637</v>
@@ -12505,23 +7156,8 @@
       <c r="C309">
         <v>36</v>
       </c>
-      <c r="D309">
-        <v>0</v>
-      </c>
       <c r="E309">
         <v>6</v>
-      </c>
-      <c r="F309">
-        <v>0</v>
-      </c>
-      <c r="G309">
-        <v>0</v>
-      </c>
-      <c r="H309">
-        <v>0</v>
-      </c>
-      <c r="I309">
-        <v>0</v>
       </c>
       <c r="J309" t="s">
         <v>638</v>
@@ -12537,24 +7173,6 @@
       <c r="C310">
         <v>1</v>
       </c>
-      <c r="D310">
-        <v>0</v>
-      </c>
-      <c r="E310">
-        <v>0</v>
-      </c>
-      <c r="F310">
-        <v>0</v>
-      </c>
-      <c r="G310">
-        <v>0</v>
-      </c>
-      <c r="H310">
-        <v>0</v>
-      </c>
-      <c r="I310">
-        <v>0</v>
-      </c>
       <c r="J310" t="s">
         <v>639</v>
       </c>
@@ -12569,24 +7187,6 @@
       <c r="C311">
         <v>38</v>
       </c>
-      <c r="D311">
-        <v>0</v>
-      </c>
-      <c r="E311">
-        <v>0</v>
-      </c>
-      <c r="F311">
-        <v>0</v>
-      </c>
-      <c r="G311">
-        <v>0</v>
-      </c>
-      <c r="H311">
-        <v>0</v>
-      </c>
-      <c r="I311">
-        <v>0</v>
-      </c>
       <c r="J311" t="s">
         <v>640</v>
       </c>
@@ -12601,24 +7201,6 @@
       <c r="C312">
         <v>1</v>
       </c>
-      <c r="D312">
-        <v>0</v>
-      </c>
-      <c r="E312">
-        <v>0</v>
-      </c>
-      <c r="F312">
-        <v>0</v>
-      </c>
-      <c r="G312">
-        <v>0</v>
-      </c>
-      <c r="H312">
-        <v>0</v>
-      </c>
-      <c r="I312">
-        <v>0</v>
-      </c>
       <c r="J312" t="s">
         <v>641</v>
       </c>
@@ -12630,27 +7212,6 @@
       <c r="B313" t="s">
         <v>330</v>
       </c>
-      <c r="C313">
-        <v>0</v>
-      </c>
-      <c r="D313">
-        <v>0</v>
-      </c>
-      <c r="E313">
-        <v>0</v>
-      </c>
-      <c r="F313">
-        <v>0</v>
-      </c>
-      <c r="G313">
-        <v>0</v>
-      </c>
-      <c r="H313">
-        <v>0</v>
-      </c>
-      <c r="I313">
-        <v>0</v>
-      </c>
       <c r="J313" t="s">
         <v>642</v>
       </c>
@@ -12665,23 +7226,8 @@
       <c r="C314">
         <v>8</v>
       </c>
-      <c r="D314">
-        <v>0</v>
-      </c>
-      <c r="E314">
-        <v>0</v>
-      </c>
       <c r="F314">
         <v>8</v>
-      </c>
-      <c r="G314">
-        <v>0</v>
-      </c>
-      <c r="H314">
-        <v>0</v>
-      </c>
-      <c r="I314">
-        <v>0</v>
       </c>
       <c r="J314" t="s">
         <v>643</v>
@@ -12697,17 +7243,11 @@
       <c r="C315">
         <v>172</v>
       </c>
-      <c r="D315">
-        <v>0</v>
-      </c>
       <c r="E315">
         <v>3</v>
       </c>
       <c r="F315">
         <v>548</v>
-      </c>
-      <c r="G315">
-        <v>0</v>
       </c>
       <c r="H315">
         <v>218</v>
@@ -12729,24 +7269,6 @@
       <c r="C316">
         <v>7</v>
       </c>
-      <c r="D316">
-        <v>0</v>
-      </c>
-      <c r="E316">
-        <v>0</v>
-      </c>
-      <c r="F316">
-        <v>0</v>
-      </c>
-      <c r="G316">
-        <v>0</v>
-      </c>
-      <c r="H316">
-        <v>0</v>
-      </c>
-      <c r="I316">
-        <v>0</v>
-      </c>
       <c r="J316" t="s">
         <v>645</v>
       </c>
@@ -12758,27 +7280,6 @@
       <c r="B317" t="s">
         <v>334</v>
       </c>
-      <c r="C317">
-        <v>0</v>
-      </c>
-      <c r="D317">
-        <v>0</v>
-      </c>
-      <c r="E317">
-        <v>0</v>
-      </c>
-      <c r="F317">
-        <v>0</v>
-      </c>
-      <c r="G317">
-        <v>0</v>
-      </c>
-      <c r="H317">
-        <v>0</v>
-      </c>
-      <c r="I317">
-        <v>0</v>
-      </c>
       <c r="J317" t="s">
         <v>646</v>
       </c>
@@ -12793,24 +7294,6 @@
       <c r="C318">
         <v>1</v>
       </c>
-      <c r="D318">
-        <v>0</v>
-      </c>
-      <c r="E318">
-        <v>0</v>
-      </c>
-      <c r="F318">
-        <v>0</v>
-      </c>
-      <c r="G318">
-        <v>0</v>
-      </c>
-      <c r="H318">
-        <v>0</v>
-      </c>
-      <c r="I318">
-        <v>0</v>
-      </c>
       <c r="J318" t="s">
         <v>647</v>
       </c>
@@ -12825,24 +7308,6 @@
       <c r="C319">
         <v>55</v>
       </c>
-      <c r="D319">
-        <v>0</v>
-      </c>
-      <c r="E319">
-        <v>0</v>
-      </c>
-      <c r="F319">
-        <v>0</v>
-      </c>
-      <c r="G319">
-        <v>0</v>
-      </c>
-      <c r="H319">
-        <v>0</v>
-      </c>
-      <c r="I319">
-        <v>0</v>
-      </c>
       <c r="J319" t="s">
         <v>648</v>
       </c>
@@ -12854,27 +7319,6 @@
       <c r="B320" t="s">
         <v>330</v>
       </c>
-      <c r="C320">
-        <v>0</v>
-      </c>
-      <c r="D320">
-        <v>0</v>
-      </c>
-      <c r="E320">
-        <v>0</v>
-      </c>
-      <c r="F320">
-        <v>0</v>
-      </c>
-      <c r="G320">
-        <v>0</v>
-      </c>
-      <c r="H320">
-        <v>0</v>
-      </c>
-      <c r="I320">
-        <v>0</v>
-      </c>
       <c r="J320" t="s">
         <v>649</v>
       </c>
@@ -12886,27 +7330,6 @@
       <c r="B321" t="s">
         <v>330</v>
       </c>
-      <c r="C321">
-        <v>0</v>
-      </c>
-      <c r="D321">
-        <v>0</v>
-      </c>
-      <c r="E321">
-        <v>0</v>
-      </c>
-      <c r="F321">
-        <v>0</v>
-      </c>
-      <c r="G321">
-        <v>0</v>
-      </c>
-      <c r="H321">
-        <v>0</v>
-      </c>
-      <c r="I321">
-        <v>0</v>
-      </c>
       <c r="J321" t="s">
         <v>650</v>
       </c>
@@ -12921,24 +7344,6 @@
       <c r="C322">
         <v>2</v>
       </c>
-      <c r="D322">
-        <v>0</v>
-      </c>
-      <c r="E322">
-        <v>0</v>
-      </c>
-      <c r="F322">
-        <v>0</v>
-      </c>
-      <c r="G322">
-        <v>0</v>
-      </c>
-      <c r="H322">
-        <v>0</v>
-      </c>
-      <c r="I322">
-        <v>0</v>
-      </c>
       <c r="J322" t="s">
         <v>651</v>
       </c>
@@ -12949,27 +7354,6 @@
       </c>
       <c r="B323" t="s">
         <v>334</v>
-      </c>
-      <c r="C323">
-        <v>0</v>
-      </c>
-      <c r="D323">
-        <v>0</v>
-      </c>
-      <c r="E323">
-        <v>0</v>
-      </c>
-      <c r="F323">
-        <v>0</v>
-      </c>
-      <c r="G323">
-        <v>0</v>
-      </c>
-      <c r="H323">
-        <v>0</v>
-      </c>
-      <c r="I323">
-        <v>0</v>
       </c>
       <c r="J323" t="s">
         <v>652</v>

--- a/resources/count_implementation.xlsx
+++ b/resources/count_implementation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,26 +488,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tinkerpop</t>
+          <t>CoreNLP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>15</v>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    3744
+          <t xml:space="preserve">    3006
 </t>
         </is>
       </c>
@@ -515,28 +517,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>flink</t>
+          <t>strimzi-kafka-operator</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>Infrastructure Management</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   22461
+          <t xml:space="preserve">    2665
 </t>
         </is>
       </c>
@@ -544,12 +542,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hadoop</t>
+          <t>swagger-core</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>Software Development</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -561,7 +559,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">       8
+          <t xml:space="preserve">    1138
 </t>
         </is>
       </c>
@@ -569,26 +567,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>beam</t>
+          <t>syncthing-android</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>File Management</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1292
+          <t xml:space="preserve">     392
 </t>
         </is>
       </c>
@@ -596,34 +592,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ambari</t>
+          <t>synthea</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Infrastructure Management</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8</v>
-      </c>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>43</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>269</v>
+        <v>5</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   10718
+          <t xml:space="preserve">    1488
 </t>
         </is>
       </c>
@@ -631,34 +619,28 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>camel</t>
+          <t>AmazeFileManager</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Software Development</t>
+          <t>File Management</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>1280</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>19</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   33464
+          <t xml:space="preserve">    1298
 </t>
         </is>
       </c>
@@ -666,34 +648,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cas</t>
+          <t>teammates</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>27</v>
-      </c>
+          <t>Collaboration</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>504</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">    5723
+          <t xml:space="preserve">     206
 </t>
         </is>
       </c>
@@ -701,7 +673,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AsciidocFX</t>
+          <t>NewPipe</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -713,14 +685,16 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>12</v>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1643
+          <t xml:space="preserve">    3149
 </t>
         </is>
       </c>
@@ -728,24 +702,36 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>async-http-client</t>
+          <t>FrameworkBenchmarks</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Network</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>79</v>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">     370
+          <t xml:space="preserve">    7405
 </t>
         </is>
       </c>
@@ -753,30 +739,28 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>commafeed</t>
+          <t>testcontainers-java</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Collaboration</t>
+          <t>Software Development</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">     373
+          <t xml:space="preserve">    1338
 </t>
         </is>
       </c>
@@ -784,26 +768,30 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>atmosphere</t>
+          <t>onedev</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>Collaboration</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
+        <v>154</v>
+      </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>163</v>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">     385
+          <t xml:space="preserve">    5003
 </t>
         </is>
       </c>
@@ -811,24 +799,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>simplenote-android</t>
+          <t>thingsboard</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Personal Management</t>
+          <t xml:space="preserve">Artificial Intelligence </t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" t="n">
+        <v>33</v>
+      </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>73</v>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">     724
+          <t xml:space="preserve">    8179
 </t>
         </is>
       </c>
@@ -836,26 +832,26 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>aws-sdk-java</t>
+          <t>tlaplus</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Software Development</t>
+          <t>Program Analysis</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  155056
+          <t xml:space="preserve">    5327
 </t>
         </is>
       </c>
@@ -863,24 +859,28 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>aws-sdk-java-v2</t>
+          <t>ArchUnit</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Infrastructure Management</t>
+          <t>Program Analysis</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>25</v>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">    9544
+          <t xml:space="preserve">    1665
 </t>
         </is>
       </c>
@@ -888,30 +888,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AxonFramework</t>
+          <t>traccar</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Infrastructure Management</t>
+          <t>Network</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>4</v>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>11</v>
-      </c>
+      <c r="F16" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>108</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">    2214
+          <t xml:space="preserve">    1517
 </t>
         </is>
       </c>
@@ -919,28 +915,26 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>azkaban</t>
+          <t>trino</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Automation</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>9</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1894
+          <t xml:space="preserve">   14733
 </t>
         </is>
       </c>
@@ -948,28 +942,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bazel</t>
+          <t>java-tron</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Software Development</t>
+          <t>Cryptocurrency</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>4</v>
-      </c>
-      <c r="G18" t="n">
-        <v>7</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">    8424
+          <t xml:space="preserve">    1417
 </t>
         </is>
       </c>
@@ -977,26 +967,26 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bc-java</t>
+          <t>Twitter4J</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">    8675
+          <t xml:space="preserve">     533
 </t>
         </is>
       </c>
@@ -1004,28 +994,24 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>caffeine</t>
+          <t>afwall</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Infrastructure Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>6</v>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">     822
+          <t xml:space="preserve">     526
 </t>
         </is>
       </c>
@@ -1033,24 +1019,28 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>bisq</t>
+          <t>fitnesse</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cryptocurrency</t>
+          <t>Program Analysis</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve">    3622
+          <t xml:space="preserve">    2818
 </t>
         </is>
       </c>
@@ -1058,28 +1048,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bitcoin-wallet</t>
+          <t>undertow</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cryptocurrency</t>
+          <t>Infrastructure Management</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>2</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve">     508
+          <t xml:space="preserve">    1551
 </t>
         </is>
       </c>
@@ -1087,24 +1073,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>bitcoinj</t>
+          <t>UniversalMediaServer</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cryptocurrency</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">     537
+          <t xml:space="preserve">    2472
 </t>
         </is>
       </c>
@@ -1112,7 +1100,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AndroidUtilCode</t>
+          <t>framework</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1120,16 +1108,26 @@
           <t>Software Development</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">     704
+          <t xml:space="preserve">   10118
 </t>
         </is>
       </c>
@@ -1137,24 +1135,26 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>webdrivermanager</t>
+          <t>validator</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Automation</t>
+          <t>Software Development</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>11</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve">     195
+          <t xml:space="preserve">     721
 </t>
         </is>
       </c>
@@ -1162,7 +1162,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>bootique</t>
+          <t>vavr</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1179,7 +1179,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve">     581
+          <t xml:space="preserve">     333
 </t>
         </is>
       </c>
@@ -1187,26 +1187,30 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HikariCP</t>
+          <t>modeldb</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t xml:space="preserve">Artificial Intelligence </t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>57</v>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve">     129
+          <t xml:space="preserve">    4314
 </t>
         </is>
       </c>
@@ -1214,7 +1218,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>YCSB</t>
+          <t>vespa</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1223,19 +1227,21 @@
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
-        <v>2</v>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
+        <v>17</v>
+      </c>
+      <c r="G28" t="n">
+        <v>97</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
         <v>2</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve">     418
+          <t xml:space="preserve">   22041
 </t>
         </is>
       </c>
@@ -1243,7 +1249,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>gatk</t>
+          <t>fastutil</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1254,13 +1260,15 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve">       0
+          <t xml:space="preserve">     277
 </t>
         </is>
       </c>
@@ -1268,32 +1276,28 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BroadleafCommerce</t>
+          <t>Saturn</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Enterprise Resource Planning</t>
+          <t>Automation</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
         <v>36</v>
       </c>
-      <c r="G30" t="n">
-        <v>246</v>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="n">
-        <v>361</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">    3886
+          <t xml:space="preserve">     882
 </t>
         </is>
       </c>
@@ -1301,26 +1305,26 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>btrace</t>
+          <t>flexmark-java</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Program Analysis</t>
+          <t>Software Development</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="n">
+      <c r="F31" t="n">
         <v>1</v>
       </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">     634
+          <t xml:space="preserve">    2981
 </t>
         </is>
       </c>
@@ -1328,24 +1332,26 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BuildCraft</t>
+          <t>epubcheck</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>Program Analysis</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>36</v>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve">    3499
+          <t xml:space="preserve">    3695
 </t>
         </is>
       </c>
@@ -1353,24 +1359,26 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>glide</t>
+          <t>dynmap</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Game</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1211
+          <t xml:space="preserve">    4569
 </t>
         </is>
       </c>
@@ -1378,26 +1386,34 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>javacpp-presets</t>
+          <t>wildfly</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Software Development</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+          <t>Infrastructure Management</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>68</v>
+      </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>416</v>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve">   12237
+          <t xml:space="preserve">   13493
 </t>
         </is>
       </c>
@@ -1405,26 +1421,26 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>baritone</t>
+          <t>Universal-G-Code-Sender</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>Automation</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>6</v>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve">     396
+          <t xml:space="preserve">    2921
 </t>
         </is>
       </c>
@@ -1432,32 +1448,28 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>camunda-bpm-platform</t>
+          <t>xxl-job</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Enterprise Resource Planning</t>
+          <t>Automation</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>135</v>
-      </c>
-      <c r="G36" t="n">
-        <v>4</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="n">
-        <v>11</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve">   16602
+          <t xml:space="preserve">     287
 </t>
         </is>
       </c>
@@ -1465,24 +1477,26 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Android-IMSI-Catcher-Detector</t>
+          <t>yacy_search_server</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Infrastructure Management</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>46</v>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t xml:space="preserve">     400
+          <t xml:space="preserve">    1888
 </t>
         </is>
       </c>
@@ -1490,28 +1504,26 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>cgeo</t>
+          <t>zaproxy</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>8</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t xml:space="preserve">    2735
+          <t xml:space="preserve">    2269
 </t>
         </is>
       </c>
@@ -1519,28 +1531,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>checkstyle</t>
+          <t>maxwell</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Program Analysis</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="n">
-        <v>4</v>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">    6962
+          <t xml:space="preserve">     490
 </t>
         </is>
       </c>
@@ -1548,26 +1556,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>libsvm</t>
+          <t>jeromq</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Infrastructure Management</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve">      60
+          <t xml:space="preserve">     471
 </t>
         </is>
       </c>
@@ -1575,800 +1581,26 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>classgraph</t>
+          <t>zxing</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Program Analysis</t>
+          <t>Software Development</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="n">
-        <v>2</v>
-      </c>
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="n">
-        <v>3</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t xml:space="preserve">     415
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>clojure</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Software Development</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     347
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>uaa</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
-        <v>30</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="n">
-        <v>5</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2349
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>webmagic</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Artificial Intelligence </t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     310
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>spring-boot-admin</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Monitoring</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="n">
-        <v>3</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1148
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>gnucash-android</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Finances</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     603
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Recaf</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Program Analysis</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1174
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>schema-registry</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Data Management</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="n">
-        <v>2</v>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     979
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>ksql</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Data Management</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   24069
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>connectbot</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Network</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     434
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>crate</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Data Management</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    5643
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>cryptomator</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>File Management</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="n">
-        <v>3</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     665
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>android</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     476
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>cuba</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Enterprise Resource Planning</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>78</v>
-      </c>
-      <c r="D54" t="n">
-        <v>12</v>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="n">
-        <v>26</v>
-      </c>
-      <c r="G54" t="n">
-        <v>10</v>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="n">
-        <v>331</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    5702
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>cucumber-jvm</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Program Analysis</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="n">
-        <v>3</v>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="n">
-        <v>25</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2</v>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1146
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>openhtmltopdf</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Software Development</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="n">
-        <v>3</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1870
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>dbeaver</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Data Management</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="n">
-        <v>4</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    9016
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>debezium</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Data Management</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="n">
-        <v>47</v>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="n">
-        <v>7</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2987
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>spotless</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Software Development</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1082
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>docker-java</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Infrastructure Management</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     904
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>dozer</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Automation</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="n">
-        <v>11</v>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="n">
-        <v>3</v>
-      </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1131
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Automation</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     657
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>metadata-extractor</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     613
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>metrics</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Monitoring</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     588
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>dropwizard</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Infrastructure Management</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" t="n">
-        <v>57</v>
-      </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="n">
-        <v>14</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1272
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>ebean</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Data Management</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="n">
-        <v>2</v>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="n">
-        <v>5</v>
-      </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="n">
-        <v>871</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4286
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>eclipse-collections</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Software Development</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3277
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>vert.x</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Infrastructure Management</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1137
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>ehcache3</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Data Management</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="n">
-        <v>35</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="n">
-        <v>6</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1863
+          <t xml:space="preserve">    3768
 </t>
         </is>
       </c>

--- a/resources/count_implementation.xlsx
+++ b/resources/count_implementation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,28 +488,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CoreNLP</t>
+          <t>Activiti</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Enterprise Resource Planning</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>60</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    3006
+          <t xml:space="preserve">    5151
 </t>
         </is>
       </c>
@@ -517,12 +521,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>strimzi-kafka-operator</t>
+          <t>lottie-android</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Infrastructure Management</t>
+          <t>Game</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -534,7 +538,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">    2665
+          <t xml:space="preserve">    1273
 </t>
         </is>
       </c>
@@ -542,7 +546,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>swagger-core</t>
+          <t>spring-cloud-alibaba</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,13 +557,17 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1138
+          <t xml:space="preserve">     841
 </t>
         </is>
       </c>
@@ -567,24 +575,28 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>syncthing-android</t>
+          <t>nacos</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>File Management</t>
+          <t>Infrastructure Management</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>14</v>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">     392
+          <t xml:space="preserve">    2935
 </t>
         </is>
       </c>
@@ -592,7 +604,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>synthea</t>
+          <t>fastjson</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -601,17 +613,21 @@
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1488
+          <t xml:space="preserve">    3249
 </t>
         </is>
       </c>
@@ -619,28 +635,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AmazeFileManager</t>
+          <t>aliyun-openapi-java-sdk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>File Management</t>
+          <t>Infrastructure Management</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>11</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>11</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1298
+          <t xml:space="preserve">   59971
 </t>
         </is>
       </c>
@@ -648,24 +660,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>teammates</t>
+          <t>alluxio</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Collaboration</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">     206
+          <t xml:space="preserve">    4092
 </t>
         </is>
       </c>
@@ -673,28 +687,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NewPipe</t>
+          <t>FXGL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Game</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>12</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    3149
+          <t xml:space="preserve">    1370
 </t>
         </is>
       </c>
@@ -702,36 +712,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FrameworkBenchmarks</t>
+          <t>android-beacon-library</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Software Development</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>15</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>30</v>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-      <c r="I10" t="n">
-        <v>79</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">    7405
+          <t xml:space="preserve">     148
 </t>
         </is>
       </c>
@@ -739,7 +737,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>testcontainers-java</t>
+          <t>streamex</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -748,19 +746,15 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1338
+          <t xml:space="preserve">     129
 </t>
         </is>
       </c>
@@ -768,30 +762,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>onedev</t>
+          <t>AntennaPod</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Collaboration</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-      <c r="G12" t="n">
-        <v>154</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">    5003
+          <t xml:space="preserve">    1157
 </t>
         </is>
       </c>
@@ -799,32 +789,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>thingsboard</t>
+          <t>antlr4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Artificial Intelligence </t>
+          <t>Software Development</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>8</v>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>12</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
-        <v>73</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">    8179
+          <t xml:space="preserve">    2292
 </t>
         </is>
       </c>
@@ -832,26 +816,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tlaplus</t>
+          <t>AnySoftKeyboard</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Program Analysis</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">    5327
+          <t xml:space="preserve">    6713
 </t>
         </is>
       </c>
@@ -859,28 +841,24 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ArchUnit</t>
+          <t>rocketmq</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Program Analysis</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>25</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1665
+          <t xml:space="preserve">    2533
 </t>
         </is>
       </c>
@@ -888,26 +866,28 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>traccar</t>
+          <t>hudi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>7</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1517
+          <t xml:space="preserve">    4165
 </t>
         </is>
       </c>
@@ -915,7 +895,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>trino</t>
+          <t>iceberg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -927,14 +907,14 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">   14733
+          <t xml:space="preserve">    4536
 </t>
         </is>
       </c>
@@ -942,24 +922,34 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>java-tron</t>
+          <t>servicecomb-pack</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cryptocurrency</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+          <t>Enterprise Resource Planning</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>27</v>
+      </c>
+      <c r="D18" t="n">
+        <v>32</v>
+      </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>12</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>13</v>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1417
+          <t xml:space="preserve">     979
 </t>
         </is>
       </c>
@@ -967,26 +957,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Twitter4J</t>
+          <t>shiro</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>6</v>
+      </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7</v>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">     533
+          <t xml:space="preserve">    1260
 </t>
         </is>
       </c>
@@ -994,12 +990,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>afwall</t>
+          <t>opennlp</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t xml:space="preserve">Artificial Intelligence </t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1011,7 +1007,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">     526
+          <t xml:space="preserve">    1372
 </t>
         </is>
       </c>
@@ -1019,28 +1015,28 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>fitnesse</t>
+          <t>zookeeper</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Program Analysis</t>
+          <t>Infrastructure Management</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve">    2818
+          <t xml:space="preserve">    1503
 </t>
         </is>
       </c>
@@ -1048,24 +1044,28 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>undertow</t>
+          <t>avro</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Infrastructure Management</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>40</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9</v>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1551
+          <t xml:space="preserve">    2275
 </t>
         </is>
       </c>
@@ -1073,26 +1073,28 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UniversalMediaServer</t>
+          <t>shardingsphere-elasticjob</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Infrastructure Management</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>29</v>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">    2472
+          <t xml:space="preserve">    1084
 </t>
         </is>
       </c>
@@ -1100,34 +1102,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>framework</t>
+          <t>bookkeeper</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Software Development</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3</v>
-      </c>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="n">
-        <v>6</v>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">   10118
+          <t xml:space="preserve">    3268
 </t>
         </is>
       </c>
@@ -1135,26 +1129,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>validator</t>
+          <t>curator</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Software Development</t>
+          <t>Infrastructure Management</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
-        <v>11</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve">     721
+          <t xml:space="preserve">     766
 </t>
         </is>
       </c>
@@ -1162,7 +1154,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vavr</t>
+          <t>netbeans</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1170,16 +1162,26 @@
           <t>Software Development</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>95</v>
+      </c>
+      <c r="D26" t="n">
+        <v>39</v>
+      </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>460</v>
+      </c>
+      <c r="G26" t="n">
+        <v>234</v>
+      </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>267</v>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve">     333
+          <t xml:space="preserve">   91104
 </t>
         </is>
       </c>
@@ -1187,30 +1189,26 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>modeldb</t>
+          <t>nutch</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Artificial Intelligence </t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>4</v>
-      </c>
-      <c r="G27" t="n">
-        <v>54</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
-        <v>57</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve">    4314
+          <t xml:space="preserve">    1101
 </t>
         </is>
       </c>
@@ -1218,30 +1216,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vespa</t>
+          <t>servicecomb-java-chassis</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>Infrastructure Management</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>7</v>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G28" t="n">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
-        <v>2</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve">   22041
+          <t xml:space="preserve">    3215
 </t>
         </is>
       </c>
@@ -1249,26 +1247,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>fastutil</t>
+          <t>httpcomponents-client</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>Network</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve">     277
+          <t xml:space="preserve">     829
 </t>
         </is>
       </c>
@@ -1276,28 +1272,26 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Saturn</t>
+          <t>calcite</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Automation</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="n">
-        <v>6</v>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">     882
+          <t xml:space="preserve">    2947
 </t>
         </is>
       </c>
@@ -1305,26 +1299,30 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>flexmark-java</t>
+          <t>dubbo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Software Development</t>
+          <t>Infrastructure Management</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>77</v>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5</v>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">    2981
+          <t xml:space="preserve">    4667
 </t>
         </is>
       </c>
@@ -1332,26 +1330,30 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>epubcheck</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Program Analysis</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>36</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>15</v>
+      </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve">    3695
+          <t xml:space="preserve">    6529
 </t>
         </is>
       </c>
@@ -1359,26 +1361,26 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>dynmap</t>
+          <t>pulsar</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>Network</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>28</v>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">    4569
+          <t xml:space="preserve">    5233
 </t>
         </is>
       </c>
@@ -1386,34 +1388,26 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>wildfly</t>
+          <t>zeppelin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Infrastructure Management</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>15</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>68</v>
-      </c>
-      <c r="G34" t="n">
-        <v>170</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="n">
-        <v>416</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve">   13493
+          <t xml:space="preserve">    2410
 </t>
         </is>
       </c>
@@ -1421,26 +1415,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Universal-G-Code-Sender</t>
+          <t>iotdb</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Automation</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="n">
-        <v>6</v>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve">    2921
+          <t xml:space="preserve">    6092
 </t>
         </is>
       </c>
@@ -1448,28 +1440,32 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>xxl-job</t>
+          <t>skywalking</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Automation</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>20</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve">     287
+          <t xml:space="preserve">    3833
 </t>
         </is>
       </c>
@@ -1477,26 +1473,28 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>yacy_search_server</t>
+          <t>tika</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Infrastructure Management</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1888
+          <t xml:space="preserve">    3682
 </t>
         </is>
       </c>
@@ -1504,26 +1502,30 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>zaproxy</t>
+          <t>nifi</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
         <v>2</v>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t xml:space="preserve">    2269
+          <t xml:space="preserve">   12754
 </t>
         </is>
       </c>
@@ -1531,24 +1533,30 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>maxwell</t>
+          <t>commons-lang</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>Software Development</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">     490
+          <t xml:space="preserve">     583
 </t>
         </is>
       </c>
@@ -1556,24 +1564,26 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>jeromq</t>
+          <t>gobblin</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Infrastructure Management</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve">     471
+          <t xml:space="preserve">    4496
 </t>
         </is>
       </c>
@@ -1581,7 +1591,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>zxing</t>
+          <t>struts</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1590,17 +1600,866 @@
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>5</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+        <v>63</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10</v>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t xml:space="preserve">    3768
+          <t xml:space="preserve">    3436
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>kafka</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Infrastructure Management</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6523
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>geode</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>6</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>64</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10414
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>pdfbox</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1878
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>storm</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3093
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>activemq</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>225</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>10</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>56</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5322
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>maven</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>13</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2106
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>poi</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5481
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>logging-log4j2</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2232
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>hive</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>13</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   21272
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>groovy</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5013
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>jmeter</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Automation</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>6</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3978
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>tinkerpop</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>14</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3744
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>flink</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   24422
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>tomcat</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Infrastructure Management</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>5</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>4</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4514
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>hadoop</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7510
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>beam</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>14</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   14546
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ambari</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Infrastructure Management</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>50</v>
+      </c>
+      <c r="D58" t="n">
+        <v>8</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>43</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>269</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10718
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>camel</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>1280</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>19</v>
+      </c>
+      <c r="G59" t="n">
+        <v>9</v>
+      </c>
+      <c r="H59" t="n">
+        <v>12</v>
+      </c>
+      <c r="I59" t="n">
+        <v>49</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   33526
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>cas</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>7</v>
+      </c>
+      <c r="D60" t="n">
+        <v>9</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>36</v>
+      </c>
+      <c r="G60" t="n">
+        <v>30</v>
+      </c>
+      <c r="H60" t="n">
+        <v>267</v>
+      </c>
+      <c r="I60" t="n">
+        <v>82</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   11034
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>AsciidocFX</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>5</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1643
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>async-http-client</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     370
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>commafeed</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Collaboration</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>8</v>
+      </c>
+      <c r="G63" t="n">
+        <v>7</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>21</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     373
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>atmosphere</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     385
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>simplenote-android</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Personal Management</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     724
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>aws-sdk-java-v2</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Infrastructure Management</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9545
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>AxonFramework</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Infrastructure Management</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>4</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>11</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>108</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2219
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>azkaban</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Automation</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>9</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1894
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>bazel</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>4</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8413
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>bc-java</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>3</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8675
 </t>
         </is>
       </c>

--- a/resources/count_implementation.xlsx
+++ b/resources/count_implementation.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O362"/>
+  <dimension ref="A1:O363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2935</v>
+        <v>2955</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>59946</v>
+        <v>60208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>4092</v>
+        <v>3443</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>4197</v>
+        <v>4213</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>4525</v>
+        <v>4538</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1072</v>
+        <v>1516</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>74140</v>
+        <v>2195</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>11075</v>
+        <v>3268</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>90851</v>
+        <v>91115</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>3638</v>
+        <v>3214</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>2925</v>
+        <v>2947</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>4666</v>
+        <v>4667</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>5058</v>
+        <v>5212</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>2448</v>
+        <v>2410</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>6068</v>
+        <v>6138</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>3827</v>
+        <v>3833</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>3682</v>
+        <v>3685</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>13414</v>
+        <v>12770</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2468,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>361</v>
+        <v>583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>4496</v>
+        <v>4498</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>6570</v>
+        <v>6514</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>2036</v>
+        <v>1878</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>5330</v>
+        <v>5337</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>2843</v>
+        <v>2913</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>5479</v>
+        <v>5481</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>2230</v>
+        <v>6235</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>5550</v>
+        <v>21305</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>5012</v>
+        <v>5014</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>23756</v>
+        <v>22487</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>4520</v>
+        <v>4505</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>4966</v>
+        <v>15596</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>16459</v>
+        <v>14562</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>10715</v>
+        <v>10718</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>33499</v>
       </c>
       <c r="I57" t="n">
         <v>12</v>
@@ -3623,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>58</v>
+        <v>11057</v>
       </c>
       <c r="I58" t="n">
         <v>269</v>
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>155048</v>
+        <v>155056</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>9478</v>
+        <v>9560</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>2155</v>
+        <v>2226</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>9262</v>
+        <v>8354</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>4155</v>
+        <v>8675</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -4338,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>3617</v>
+        <v>3622</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>7016</v>
+        <v>7043</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -4778,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>3343</v>
+        <v>3886</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>971</v>
+        <v>3499</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>12237</v>
+        <v>12287</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -5053,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>16602</v>
+        <v>16612</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>2761</v>
+        <v>2785</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -5218,7 +5218,7 @@
         <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>6948</v>
+        <v>6983</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -5438,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -5493,7 +5493,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -5603,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>961</v>
+        <v>978</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>24068</v>
+        <v>24069</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>5622</v>
+        <v>5642</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -6098,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>9057</v>
+        <v>9023</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -6153,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>3109</v>
+        <v>3121</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -6208,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>1069</v>
+        <v>1085</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -6428,7 +6428,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>587</v>
+        <v>538</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>4286</v>
+        <v>4290</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -6593,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>3275</v>
+        <v>3277</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -6648,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -6758,7 +6758,7 @@
         <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>1284</v>
+        <v>1081</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>31235</v>
+        <v>31704</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -6978,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>187</v>
+        <v>797</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -7033,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>1255</v>
+        <v>1287</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -7088,7 +7088,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -7143,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>8107</v>
+        <v>7941</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>2841</v>
+        <v>2837</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -7253,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>8522</v>
+        <v>4920</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -7308,7 +7308,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -7363,7 +7363,7 @@
         <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>1305</v>
+        <v>1274</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -7418,7 +7418,7 @@
         <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>4051</v>
+        <v>4062</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -7528,7 +7528,7 @@
         <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>15304</v>
+        <v>15358</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -7583,7 +7583,7 @@
         <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>21198</v>
+        <v>21197</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>1358</v>
+        <v>1368</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -7693,7 +7693,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>1104</v>
+        <v>1118</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -7748,7 +7748,7 @@
         <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>4</v>
+        <v>608</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -7803,7 +7803,7 @@
         <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>18398</v>
+        <v>18421</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>15406</v>
+        <v>17397</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -7913,7 +7913,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>4673</v>
+        <v>4705</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>1055</v>
+        <v>1071</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -8188,7 +8188,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -8353,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>3862</v>
+        <v>3891</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -8408,7 +8408,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>2781</v>
+        <v>2423</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -8738,7 +8738,7 @@
         <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>88685</v>
+        <v>89712</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -8958,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -9013,7 +9013,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>10072</v>
+        <v>10104</v>
       </c>
       <c r="I156" t="n">
         <v>9</v>
@@ -9068,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>2086</v>
+        <v>2097</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -9123,7 +9123,7 @@
         <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -9233,7 +9233,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>12417</v>
+        <v>12452</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>1502</v>
+        <v>1546</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -9508,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -9620,7 +9620,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>2335</v>
+        <v>2344</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -9675,7 +9675,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>2984</v>
+        <v>2986</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>7769</v>
+        <v>7799</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -10060,7 +10060,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>3337</v>
+        <v>3347</v>
       </c>
       <c r="I175" t="n">
         <v>6</v>
@@ -10170,7 +10170,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>256</v>
+        <v>148</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>2582</v>
+        <v>2585</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -10720,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>12453</v>
+        <v>12442</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>1</v>
       </c>
       <c r="H188" t="n">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -10830,7 +10830,7 @@
         <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>31608</v>
+        <v>31764</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -10940,7 +10940,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>5054</v>
+        <v>5079</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>1554</v>
+        <v>1574</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>1</v>
       </c>
       <c r="H197" t="n">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -11435,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>1893</v>
+        <v>1906</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -11490,7 +11490,7 @@
         <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -11600,7 +11600,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>9771</v>
+        <v>9808</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -11657,7 +11657,7 @@
         <v>1</v>
       </c>
       <c r="H204" t="n">
-        <v>4973</v>
+        <v>4975</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -11712,7 +11712,7 @@
         <v>1</v>
       </c>
       <c r="H205" t="n">
-        <v>2056</v>
+        <v>2052</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="n">
-        <v>3647</v>
+        <v>3705</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -11987,7 +11987,7 @@
         <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>3654</v>
+        <v>3655</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -12317,7 +12317,7 @@
         <v>1</v>
       </c>
       <c r="H216" t="n">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -12372,7 +12372,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="n">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -12427,7 +12427,7 @@
         <v>1</v>
       </c>
       <c r="H218" t="n">
-        <v>3322</v>
+        <v>3316</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -12537,7 +12537,7 @@
         <v>1</v>
       </c>
       <c r="H220" t="n">
-        <v>8564</v>
+        <v>8658</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -12702,7 +12702,7 @@
         <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>36979</v>
+        <v>36993</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -12757,7 +12757,7 @@
         <v>1</v>
       </c>
       <c r="H224" t="n">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>1</v>
       </c>
       <c r="H225" t="n">
-        <v>3945</v>
+        <v>3942</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="H226" t="n">
-        <v>3818</v>
+        <v>3903</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -12977,7 +12977,7 @@
         <v>1</v>
       </c>
       <c r="H228" t="n">
-        <v>1463</v>
+        <v>1468</v>
       </c>
       <c r="I228" t="n">
         <v>4</v>
@@ -13032,7 +13032,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="n">
-        <v>7923</v>
+        <v>7963</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -13087,7 +13087,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="n">
-        <v>2728</v>
+        <v>3083</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -13252,7 +13252,7 @@
         <v>1</v>
       </c>
       <c r="H233" t="n">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -13307,7 +13307,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="n">
-        <v>4037</v>
+        <v>4051</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -13417,7 +13417,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="n">
-        <v>920</v>
+        <v>3598</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -13527,7 +13527,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="n">
-        <v>1707</v>
+        <v>1668</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -13637,7 +13637,7 @@
         <v>1</v>
       </c>
       <c r="H240" t="n">
-        <v>20857</v>
+        <v>20870</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -13747,7 +13747,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="n">
-        <v>1297</v>
+        <v>1357</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -13802,7 +13802,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="n">
-        <v>1760</v>
+        <v>4793</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -13857,7 +13857,7 @@
         <v>1</v>
       </c>
       <c r="H244" t="n">
-        <v>159552</v>
+        <v>1582</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -13912,7 +13912,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="n">
-        <v>3580</v>
+        <v>3404</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -13967,7 +13967,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="n">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -14022,7 +14022,7 @@
         <v>1</v>
       </c>
       <c r="H247" t="n">
-        <v>2581</v>
+        <v>2589</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -14242,7 +14242,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="n">
-        <v>48902</v>
+        <v>50432</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -14352,7 +14352,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -14407,7 +14407,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="n">
-        <v>2211</v>
+        <v>2217</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -14517,7 +14517,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="n">
-        <v>4019</v>
+        <v>4068</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -14572,7 +14572,7 @@
         <v>1</v>
       </c>
       <c r="H257" t="n">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -14737,7 +14737,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="n">
-        <v>1623</v>
+        <v>1759</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -14792,7 +14792,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>16619</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -14902,7 +14902,7 @@
         <v>1</v>
       </c>
       <c r="H263" t="n">
-        <v>6615</v>
+        <v>632</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -14957,7 +14957,7 @@
         <v>1</v>
       </c>
       <c r="H264" t="n">
-        <v>7608</v>
+        <v>7656</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -15067,7 +15067,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="n">
-        <v>46041</v>
+        <v>1029</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -15124,7 +15124,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="n">
-        <v>10566</v>
+        <v>10561</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -15179,7 +15179,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="n">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -15344,7 +15344,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="n">
-        <v>4715</v>
+        <v>4714</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -15399,7 +15399,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="n">
-        <v>4902</v>
+        <v>4909</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="n">
-        <v>11936</v>
+        <v>11954</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -15564,7 +15564,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="n">
-        <v>7994</v>
+        <v>7996</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -15676,7 +15676,7 @@
         <v>1</v>
       </c>
       <c r="H277" t="n">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -15841,7 +15841,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="n">
-        <v>1637</v>
+        <v>1642</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -15951,7 +15951,7 @@
         <v>1</v>
       </c>
       <c r="H282" t="n">
-        <v>24479</v>
+        <v>24653</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -16061,7 +16061,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="n">
-        <v>4397</v>
+        <v>4464</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -16281,7 +16281,7 @@
         <v>1</v>
       </c>
       <c r="H288" t="n">
-        <v>1507</v>
+        <v>1528</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -16336,7 +16336,7 @@
         <v>1</v>
       </c>
       <c r="H289" t="n">
-        <v>665</v>
+        <v>696</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -16391,7 +16391,7 @@
         <v>1</v>
       </c>
       <c r="H290" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -16501,7 +16501,7 @@
         <v>1</v>
       </c>
       <c r="H292" t="n">
-        <v>1664</v>
+        <v>1712</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -16556,7 +16556,7 @@
         <v>1</v>
       </c>
       <c r="H293" t="n">
-        <v>2860</v>
+        <v>2924</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -16776,7 +16776,7 @@
         <v>1</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>447</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -16886,7 +16886,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="n">
-        <v>8262</v>
+        <v>8265</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -16941,7 +16941,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="n">
-        <v>2706</v>
+        <v>2716</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -17051,7 +17051,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="n">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -17106,7 +17106,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="n">
-        <v>5795</v>
+        <v>5794</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -17161,7 +17161,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="n">
-        <v>911</v>
+        <v>1199</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -17216,7 +17216,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="n">
-        <v>7375</v>
+        <v>7757</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -17326,7 +17326,7 @@
         <v>1</v>
       </c>
       <c r="H307" t="n">
-        <v>2126</v>
+        <v>2145</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -17491,7 +17491,7 @@
         <v>1</v>
       </c>
       <c r="H310" t="n">
-        <v>11166</v>
+        <v>11222</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="n">
-        <v>4128</v>
+        <v>4129</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -17656,7 +17656,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="n">
-        <v>5599</v>
+        <v>1295</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -17711,7 +17711,7 @@
         <v>1</v>
       </c>
       <c r="H314" t="n">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -17766,7 +17766,7 @@
         <v>1</v>
       </c>
       <c r="H315" t="n">
-        <v>3654</v>
+        <v>3701</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -17821,7 +17821,7 @@
         <v>1</v>
       </c>
       <c r="H316" t="n">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -17876,7 +17876,7 @@
         <v>1</v>
       </c>
       <c r="H317" t="n">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -17931,7 +17931,7 @@
         <v>1</v>
       </c>
       <c r="H318" t="n">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -18096,7 +18096,7 @@
         <v>1</v>
       </c>
       <c r="H321" t="n">
-        <v>697</v>
+        <v>741</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -18151,7 +18151,7 @@
         <v>1</v>
       </c>
       <c r="H322" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -18206,7 +18206,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="n">
-        <v>2456</v>
+        <v>2468</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -18261,7 +18261,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="n">
-        <v>4322</v>
+        <v>4677</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -18371,7 +18371,7 @@
         <v>1</v>
       </c>
       <c r="H326" t="n">
-        <v>10161</v>
+        <v>10196</v>
       </c>
       <c r="I326" t="n">
         <v>27</v>
@@ -18426,7 +18426,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="n">
-        <v>2989</v>
+        <v>3008</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -18481,7 +18481,7 @@
         <v>1</v>
       </c>
       <c r="H328" t="n">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -18536,7 +18536,7 @@
         <v>1</v>
       </c>
       <c r="H329" t="n">
-        <v>2649</v>
+        <v>2678</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -18591,7 +18591,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="n">
-        <v>1121</v>
+        <v>1138</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="n">
-        <v>206</v>
+        <v>2868</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -18756,7 +18756,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="n">
-        <v>3149</v>
+        <v>3137</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -18811,7 +18811,7 @@
         <v>1</v>
       </c>
       <c r="H334" t="n">
-        <v>7399</v>
+        <v>7410</v>
       </c>
       <c r="I334" t="n">
         <v>9</v>
@@ -18866,7 +18866,7 @@
         <v>1</v>
       </c>
       <c r="H335" t="n">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -18921,7 +18921,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="n">
-        <v>5000</v>
+        <v>5014</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -18976,7 +18976,7 @@
         <v>1</v>
       </c>
       <c r="H337" t="n">
-        <v>8162</v>
+        <v>8172</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -19031,7 +19031,7 @@
         <v>1</v>
       </c>
       <c r="H338" t="n">
-        <v>5328</v>
+        <v>5327</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -19086,7 +19086,7 @@
         <v>1</v>
       </c>
       <c r="H339" t="n">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -19141,7 +19141,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="n">
-        <v>14740</v>
+        <v>14724</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -19196,7 +19196,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="n">
-        <v>1418</v>
+        <v>1444</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -19416,7 +19416,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="n">
-        <v>1542</v>
+        <v>1551</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -19471,7 +19471,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="n">
-        <v>2473</v>
+        <v>2462</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -19636,7 +19636,7 @@
         <v>1</v>
       </c>
       <c r="H349" t="n">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -19746,7 +19746,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="n">
-        <v>22007</v>
+        <v>22073</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -20021,7 +20021,7 @@
         <v>1</v>
       </c>
       <c r="H356" t="n">
-        <v>13415</v>
+        <v>13495</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -20076,7 +20076,7 @@
         <v>1</v>
       </c>
       <c r="H357" t="n">
-        <v>2849</v>
+        <v>2921</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -20375,7 +20375,62 @@
         <v>5</v>
       </c>
     </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>liferay</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>liferay-portal</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Enterprise Resource Planning</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>38220df7f113ab58af84b3297d81db6bb40d3320</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>2024-10-12 00:30:11+00:00</t>
+        </is>
+      </c>
+      <c r="G363" t="b">
+        <v>1</v>
+      </c>
+      <c r="H363" t="n">
+        <v>109041</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0</v>
+      </c>
+      <c r="K363" t="n">
+        <v>32</v>
+      </c>
+      <c r="L363" t="n">
+        <v>215</v>
+      </c>
+      <c r="M363" t="n">
+        <v>155</v>
+      </c>
+      <c r="N363" t="n">
+        <v>1</v>
+      </c>
+      <c r="O363" t="n">
+        <v>1332</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>